--- a/src/test/java/com/base/sbc/selenium/plan/MM商品企划_企划文件夹.xlsx
+++ b/src/test/java/com/base/sbc/selenium/plan/MM商品企划_企划文件夹.xlsx
@@ -95,7 +95,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I184"/>
+  <dimension ref="A1:I185"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -683,7 +683,7 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t/>
+          <t>下装-裙子</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -693,22 +693,22 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t/>
+          <t>服装</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t/>
+          <t>下装</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t/>
+          <t>裙子</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t/>
+          <t>17</t>
         </is>
       </c>
     </row>
@@ -730,12 +730,12 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>下装-裤子</t>
+          <t>下装-裙子</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C308823</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C1358369</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -750,12 +750,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>裤子</t>
+          <t>裙子</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -777,12 +777,12 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>内搭-单服装</t>
+          <t>下装-裤子</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C308827</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C308823</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -792,17 +792,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>内搭</t>
+          <t>下装</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>单服装</t>
+          <t>裤子</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>22</t>
         </is>
       </c>
     </row>
@@ -824,12 +824,12 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>内搭-毛衫</t>
+          <t>内搭-单服装</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C308817</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C308827</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -844,12 +844,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>毛衫</t>
+          <t>单服装</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -871,12 +871,12 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>内搭-针织衫</t>
+          <t>内搭-毛衫</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C308814</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C308817</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -891,12 +891,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>针织衫</t>
+          <t>毛衫</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>82</t>
         </is>
       </c>
     </row>
@@ -918,12 +918,12 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>外套-上衣</t>
+          <t>内搭-针织衫</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C308808</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C308814</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
@@ -933,17 +933,17 @@
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>外套</t>
+          <t>内搭</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>上衣</t>
+          <t>针织衫</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -965,12 +965,12 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>外套-大衣</t>
+          <t>外套-上衣</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C308802</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C308808</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -985,12 +985,12 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>大衣</t>
+          <t>上衣</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -1012,12 +1012,12 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>外套-棉衣</t>
+          <t>外套-大衣</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C308805</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C308802</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
@@ -1032,12 +1032,12 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>棉衣</t>
+          <t>大衣</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>120</t>
         </is>
       </c>
     </row>
@@ -1059,12 +1059,12 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>外套-风衣</t>
+          <t>外套-棉衣</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C308799</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C308805</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1079,12 +1079,12 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>风衣</t>
+          <t>棉衣</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>80</t>
         </is>
       </c>
     </row>
@@ -1106,12 +1106,12 @@
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>连身衣-连身衣</t>
+          <t>外套-风衣</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C308811</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C308799</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
@@ -1121,17 +1121,17 @@
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>连身衣</t>
+          <t>外套</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>连身衣</t>
+          <t>风衣</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -1153,32 +1153,32 @@
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>配饰-包</t>
+          <t>连身衣-连身衣</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C1481879</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C308811</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>配饰</t>
+          <t>服装</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>配饰</t>
+          <t>连身衣</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>包</t>
+          <t>连身衣</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>36</t>
         </is>
       </c>
     </row>
@@ -1195,37 +1195,37 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>2018X MM</t>
+          <t>2018W MM</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t/>
+          <t>配饰-包</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C3587778</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C1481879</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t/>
+          <t>配饰</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>内搭</t>
+          <t>配饰</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>包</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -1247,12 +1247,12 @@
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>连身衣-连身衣</t>
+          <t>内搭-</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C1553105</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C3587778</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
@@ -1262,12 +1262,12 @@
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>连身衣</t>
+          <t>内搭</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>连身衣</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
@@ -1289,17 +1289,17 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>2019A MM</t>
+          <t>2018X MM</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t/>
+          <t>连身衣-连身衣</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C1576520</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C1553105</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
@@ -1309,12 +1309,12 @@
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>下装</t>
+          <t>连身衣</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>裙子</t>
+          <t>连身衣</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
@@ -1341,12 +1341,12 @@
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>下装-裤子</t>
+          <t>下装-裙子</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C1576467</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C1576520</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
@@ -1361,7 +1361,7 @@
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>裤子</t>
+          <t>裙子</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
@@ -1388,12 +1388,12 @@
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>内搭-单服装</t>
+          <t>下装-裤子</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C3084852</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C1576467</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
@@ -1403,12 +1403,12 @@
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>内搭</t>
+          <t>下装</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>单服装</t>
+          <t>裤子</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
@@ -1435,12 +1435,12 @@
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>内搭-毛衫</t>
+          <t>内搭-单服装</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C3282480</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C3084852</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
@@ -1455,7 +1455,7 @@
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>毛衫</t>
+          <t>单服装</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
@@ -1482,12 +1482,12 @@
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>内搭-针织衫</t>
+          <t>内搭-毛衫</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C2690570</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C3282480</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
@@ -1502,7 +1502,7 @@
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>针织衫</t>
+          <t>毛衫</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
@@ -1529,12 +1529,12 @@
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>外套-上衣</t>
+          <t>内搭-针织衫</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C1358101</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C2690570</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
@@ -1544,12 +1544,12 @@
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>外套</t>
+          <t>内搭</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>上衣</t>
+          <t>针织衫</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
@@ -1576,12 +1576,12 @@
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>外套-风衣</t>
+          <t>外套-上衣</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C2784415</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C1358101</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
@@ -1596,7 +1596,7 @@
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>风衣</t>
+          <t>上衣</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
@@ -1623,12 +1623,12 @@
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>连身衣-连身衣</t>
+          <t>外套-风衣</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C1576471</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C2784415</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
@@ -1638,12 +1638,12 @@
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>连身衣</t>
+          <t>外套</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>连身衣</t>
+          <t>风衣</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
@@ -1665,37 +1665,37 @@
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>2019S MM</t>
+          <t>2019A MM</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t/>
+          <t>连身衣-连身衣</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C308820</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C1576471</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t/>
+          <t>服装</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t/>
+          <t>连身衣</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t/>
+          <t>连身衣</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t/>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -1717,12 +1717,12 @@
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>下装-裤子</t>
+          <t>下装-裙子</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C308823</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C308820</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
@@ -1737,12 +1737,12 @@
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>裤子</t>
+          <t>裙子</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>9</t>
         </is>
       </c>
     </row>
@@ -1764,12 +1764,12 @@
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>内搭-单服装</t>
+          <t>下装-裤子</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C308827</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C308823</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
@@ -1779,17 +1779,17 @@
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>内搭</t>
+          <t>下装</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>单服装</t>
+          <t>裤子</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -1811,12 +1811,12 @@
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>内搭-毛衫</t>
+          <t>内搭-单服装</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C308817</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C308827</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
@@ -1831,7 +1831,7 @@
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>毛衫</t>
+          <t>单服装</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
@@ -1858,12 +1858,12 @@
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>内搭-针织衫</t>
+          <t>内搭-毛衫</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C308814</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C308817</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
@@ -1878,7 +1878,7 @@
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>针织衫</t>
+          <t>毛衫</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
@@ -1905,12 +1905,12 @@
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>外套-上衣</t>
+          <t>内搭-针织衫</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C308808</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C308814</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
@@ -1920,12 +1920,12 @@
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>外套</t>
+          <t>内搭</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>上衣</t>
+          <t>针织衫</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
@@ -1952,12 +1952,12 @@
       </c>
       <c r="D40" s="2" t="inlineStr">
         <is>
-          <t>外套-大衣</t>
+          <t>外套-上衣</t>
         </is>
       </c>
       <c r="E40" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C308802</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C308808</t>
         </is>
       </c>
       <c r="F40" s="2" t="inlineStr">
@@ -1972,7 +1972,7 @@
       </c>
       <c r="H40" s="2" t="inlineStr">
         <is>
-          <t>大衣</t>
+          <t>上衣</t>
         </is>
       </c>
       <c r="I40" s="2" t="inlineStr">
@@ -1999,12 +1999,12 @@
       </c>
       <c r="D41" s="2" t="inlineStr">
         <is>
-          <t>外套-棉衣</t>
+          <t>外套-大衣</t>
         </is>
       </c>
       <c r="E41" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C308805</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C308802</t>
         </is>
       </c>
       <c r="F41" s="2" t="inlineStr">
@@ -2019,7 +2019,7 @@
       </c>
       <c r="H41" s="2" t="inlineStr">
         <is>
-          <t>棉衣</t>
+          <t>大衣</t>
         </is>
       </c>
       <c r="I41" s="2" t="inlineStr">
@@ -2046,12 +2046,12 @@
       </c>
       <c r="D42" s="2" t="inlineStr">
         <is>
-          <t>外套-风衣</t>
+          <t>外套-棉衣</t>
         </is>
       </c>
       <c r="E42" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C308799</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C308805</t>
         </is>
       </c>
       <c r="F42" s="2" t="inlineStr">
@@ -2066,7 +2066,7 @@
       </c>
       <c r="H42" s="2" t="inlineStr">
         <is>
-          <t>风衣</t>
+          <t>棉衣</t>
         </is>
       </c>
       <c r="I42" s="2" t="inlineStr">
@@ -2093,12 +2093,12 @@
       </c>
       <c r="D43" s="2" t="inlineStr">
         <is>
-          <t>连身衣-连身衣</t>
+          <t>外套-风衣</t>
         </is>
       </c>
       <c r="E43" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C308811</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C308799</t>
         </is>
       </c>
       <c r="F43" s="2" t="inlineStr">
@@ -2108,12 +2108,12 @@
       </c>
       <c r="G43" s="2" t="inlineStr">
         <is>
-          <t>连身衣</t>
+          <t>外套</t>
         </is>
       </c>
       <c r="H43" s="2" t="inlineStr">
         <is>
-          <t>连身衣</t>
+          <t>风衣</t>
         </is>
       </c>
       <c r="I43" s="2" t="inlineStr">
@@ -2135,32 +2135,32 @@
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>2019W MM</t>
+          <t>2019S MM</t>
         </is>
       </c>
       <c r="D44" s="2" t="inlineStr">
         <is>
-          <t/>
+          <t>连身衣-连身衣</t>
         </is>
       </c>
       <c r="E44" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C4187025</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C308811</t>
         </is>
       </c>
       <c r="F44" s="2" t="inlineStr">
         <is>
-          <t/>
+          <t>服装</t>
         </is>
       </c>
       <c r="G44" s="2" t="inlineStr">
         <is>
-          <t/>
+          <t>连身衣</t>
         </is>
       </c>
       <c r="H44" s="2" t="inlineStr">
         <is>
-          <t>裙子</t>
+          <t>连身衣</t>
         </is>
       </c>
       <c r="I44" s="2" t="inlineStr">
@@ -2187,12 +2187,12 @@
       </c>
       <c r="D45" s="2" t="inlineStr">
         <is>
-          <t>下装-裤子</t>
+          <t>下装-裙子</t>
         </is>
       </c>
       <c r="E45" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C4178586</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C4187025</t>
         </is>
       </c>
       <c r="F45" s="2" t="inlineStr">
@@ -2207,7 +2207,7 @@
       </c>
       <c r="H45" s="2" t="inlineStr">
         <is>
-          <t>裤子</t>
+          <t>裙子</t>
         </is>
       </c>
       <c r="I45" s="2" t="inlineStr">
@@ -2234,12 +2234,12 @@
       </c>
       <c r="D46" s="2" t="inlineStr">
         <is>
-          <t>内搭-单服装</t>
+          <t>下装-裤子</t>
         </is>
       </c>
       <c r="E46" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C5325613</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C4178586</t>
         </is>
       </c>
       <c r="F46" s="2" t="inlineStr">
@@ -2249,12 +2249,12 @@
       </c>
       <c r="G46" s="2" t="inlineStr">
         <is>
-          <t>内搭</t>
+          <t>下装</t>
         </is>
       </c>
       <c r="H46" s="2" t="inlineStr">
         <is>
-          <t>单服装</t>
+          <t>裤子</t>
         </is>
       </c>
       <c r="I46" s="2" t="inlineStr">
@@ -2281,12 +2281,12 @@
       </c>
       <c r="D47" s="2" t="inlineStr">
         <is>
-          <t>内搭-毛衫</t>
+          <t>内搭-单服装</t>
         </is>
       </c>
       <c r="E47" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C3600494</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C5325613</t>
         </is>
       </c>
       <c r="F47" s="2" t="inlineStr">
@@ -2301,7 +2301,7 @@
       </c>
       <c r="H47" s="2" t="inlineStr">
         <is>
-          <t>毛衫</t>
+          <t>单服装</t>
         </is>
       </c>
       <c r="I47" s="2" t="inlineStr">
@@ -2328,12 +2328,12 @@
       </c>
       <c r="D48" s="2" t="inlineStr">
         <is>
-          <t>内搭-针织衫</t>
+          <t>内搭-毛衫</t>
         </is>
       </c>
       <c r="E48" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C5368644</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C3600494</t>
         </is>
       </c>
       <c r="F48" s="2" t="inlineStr">
@@ -2348,7 +2348,7 @@
       </c>
       <c r="H48" s="2" t="inlineStr">
         <is>
-          <t>针织衫</t>
+          <t>毛衫</t>
         </is>
       </c>
       <c r="I48" s="2" t="inlineStr">
@@ -2375,12 +2375,12 @@
       </c>
       <c r="D49" s="2" t="inlineStr">
         <is>
-          <t>外套-上衣</t>
+          <t>内搭-针织衫</t>
         </is>
       </c>
       <c r="E49" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C4627147</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C5368644</t>
         </is>
       </c>
       <c r="F49" s="2" t="inlineStr">
@@ -2390,12 +2390,12 @@
       </c>
       <c r="G49" s="2" t="inlineStr">
         <is>
-          <t>外套</t>
+          <t>内搭</t>
         </is>
       </c>
       <c r="H49" s="2" t="inlineStr">
         <is>
-          <t>上衣</t>
+          <t>针织衫</t>
         </is>
       </c>
       <c r="I49" s="2" t="inlineStr">
@@ -2422,12 +2422,12 @@
       </c>
       <c r="D50" s="2" t="inlineStr">
         <is>
-          <t>外套-大衣</t>
+          <t>外套-上衣</t>
         </is>
       </c>
       <c r="E50" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C3533124</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C4627147</t>
         </is>
       </c>
       <c r="F50" s="2" t="inlineStr">
@@ -2442,7 +2442,7 @@
       </c>
       <c r="H50" s="2" t="inlineStr">
         <is>
-          <t>大衣</t>
+          <t>上衣</t>
         </is>
       </c>
       <c r="I50" s="2" t="inlineStr">
@@ -2469,12 +2469,12 @@
       </c>
       <c r="D51" s="2" t="inlineStr">
         <is>
-          <t>外套-棉衣</t>
+          <t>外套-大衣</t>
         </is>
       </c>
       <c r="E51" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C1586112</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C3533124</t>
         </is>
       </c>
       <c r="F51" s="2" t="inlineStr">
@@ -2489,7 +2489,7 @@
       </c>
       <c r="H51" s="2" t="inlineStr">
         <is>
-          <t>棉衣</t>
+          <t>大衣</t>
         </is>
       </c>
       <c r="I51" s="2" t="inlineStr">
@@ -2516,12 +2516,12 @@
       </c>
       <c r="D52" s="2" t="inlineStr">
         <is>
-          <t>连身衣-连身衣</t>
+          <t>外套-棉衣</t>
         </is>
       </c>
       <c r="E52" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C4169190</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C1586112</t>
         </is>
       </c>
       <c r="F52" s="2" t="inlineStr">
@@ -2531,12 +2531,12 @@
       </c>
       <c r="G52" s="2" t="inlineStr">
         <is>
-          <t>连身衣</t>
+          <t>外套</t>
         </is>
       </c>
       <c r="H52" s="2" t="inlineStr">
         <is>
-          <t>连身衣</t>
+          <t>棉衣</t>
         </is>
       </c>
       <c r="I52" s="2" t="inlineStr">
@@ -2563,12 +2563,12 @@
       </c>
       <c r="D53" s="2" t="inlineStr">
         <is>
-          <t>配饰-围巾</t>
+          <t>连身衣-连身衣</t>
         </is>
       </c>
       <c r="E53" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C7160075</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C4169190</t>
         </is>
       </c>
       <c r="F53" s="2" t="inlineStr">
@@ -2578,12 +2578,12 @@
       </c>
       <c r="G53" s="2" t="inlineStr">
         <is>
-          <t>配饰</t>
+          <t>连身衣</t>
         </is>
       </c>
       <c r="H53" s="2" t="inlineStr">
         <is>
-          <t>围巾</t>
+          <t>连身衣</t>
         </is>
       </c>
       <c r="I53" s="2" t="inlineStr">
@@ -2610,12 +2610,12 @@
       </c>
       <c r="D54" s="2" t="inlineStr">
         <is>
-          <t>配饰-帽子</t>
+          <t>配饰-围巾</t>
         </is>
       </c>
       <c r="E54" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C6510686</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C7160075</t>
         </is>
       </c>
       <c r="F54" s="2" t="inlineStr">
@@ -2630,7 +2630,7 @@
       </c>
       <c r="H54" s="2" t="inlineStr">
         <is>
-          <t>帽子</t>
+          <t>围巾</t>
         </is>
       </c>
       <c r="I54" s="2" t="inlineStr">
@@ -2652,32 +2652,32 @@
       </c>
       <c r="C55" s="2" t="inlineStr">
         <is>
-          <t>2019X MM</t>
+          <t>2019W MM</t>
         </is>
       </c>
       <c r="D55" s="2" t="inlineStr">
         <is>
-          <t/>
+          <t>配饰-帽子</t>
         </is>
       </c>
       <c r="E55" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C1791924</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C6510686</t>
         </is>
       </c>
       <c r="F55" s="2" t="inlineStr">
         <is>
-          <t/>
+          <t>服装</t>
         </is>
       </c>
       <c r="G55" s="2" t="inlineStr">
         <is>
-          <t/>
+          <t>配饰</t>
         </is>
       </c>
       <c r="H55" s="2" t="inlineStr">
         <is>
-          <t>裙子</t>
+          <t>帽子</t>
         </is>
       </c>
       <c r="I55" s="2" t="inlineStr">
@@ -2704,12 +2704,12 @@
       </c>
       <c r="D56" s="2" t="inlineStr">
         <is>
-          <t>下装-裤子</t>
+          <t>下装-裙子</t>
         </is>
       </c>
       <c r="E56" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C2103287</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C1791924</t>
         </is>
       </c>
       <c r="F56" s="2" t="inlineStr">
@@ -2724,7 +2724,7 @@
       </c>
       <c r="H56" s="2" t="inlineStr">
         <is>
-          <t>裤子</t>
+          <t>裙子</t>
         </is>
       </c>
       <c r="I56" s="2" t="inlineStr">
@@ -2751,12 +2751,12 @@
       </c>
       <c r="D57" s="2" t="inlineStr">
         <is>
-          <t>内搭-单服装</t>
+          <t>下装-裤子</t>
         </is>
       </c>
       <c r="E57" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C1791906</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C2103287</t>
         </is>
       </c>
       <c r="F57" s="2" t="inlineStr">
@@ -2766,12 +2766,12 @@
       </c>
       <c r="G57" s="2" t="inlineStr">
         <is>
-          <t>内搭</t>
+          <t>下装</t>
         </is>
       </c>
       <c r="H57" s="2" t="inlineStr">
         <is>
-          <t>单服装</t>
+          <t>裤子</t>
         </is>
       </c>
       <c r="I57" s="2" t="inlineStr">
@@ -2798,12 +2798,12 @@
       </c>
       <c r="D58" s="2" t="inlineStr">
         <is>
-          <t>内搭-毛衫</t>
+          <t>内搭-单服装</t>
         </is>
       </c>
       <c r="E58" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C2910632</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C1791906</t>
         </is>
       </c>
       <c r="F58" s="2" t="inlineStr">
@@ -2818,7 +2818,7 @@
       </c>
       <c r="H58" s="2" t="inlineStr">
         <is>
-          <t>毛衫</t>
+          <t>单服装</t>
         </is>
       </c>
       <c r="I58" s="2" t="inlineStr">
@@ -2845,12 +2845,12 @@
       </c>
       <c r="D59" s="2" t="inlineStr">
         <is>
-          <t>内搭-针织衫</t>
+          <t>内搭-毛衫</t>
         </is>
       </c>
       <c r="E59" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C1668582</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C2910632</t>
         </is>
       </c>
       <c r="F59" s="2" t="inlineStr">
@@ -2865,12 +2865,12 @@
       </c>
       <c r="H59" s="2" t="inlineStr">
         <is>
-          <t>针织衫</t>
+          <t>毛衫</t>
         </is>
       </c>
       <c r="I59" s="2" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -2892,12 +2892,12 @@
       </c>
       <c r="D60" s="2" t="inlineStr">
         <is>
-          <t>外套-上衣</t>
+          <t>内搭-针织衫</t>
         </is>
       </c>
       <c r="E60" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C2838625</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C1668582</t>
         </is>
       </c>
       <c r="F60" s="2" t="inlineStr">
@@ -2907,17 +2907,17 @@
       </c>
       <c r="G60" s="2" t="inlineStr">
         <is>
-          <t>外套</t>
+          <t>内搭</t>
         </is>
       </c>
       <c r="H60" s="2" t="inlineStr">
         <is>
-          <t>上衣</t>
+          <t>针织衫</t>
         </is>
       </c>
       <c r="I60" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>50</t>
         </is>
       </c>
     </row>
@@ -2939,12 +2939,12 @@
       </c>
       <c r="D61" s="2" t="inlineStr">
         <is>
-          <t>连身衣-连身衣</t>
+          <t>外套-上衣</t>
         </is>
       </c>
       <c r="E61" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C1553105</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C2838625</t>
         </is>
       </c>
       <c r="F61" s="2" t="inlineStr">
@@ -2954,17 +2954,17 @@
       </c>
       <c r="G61" s="2" t="inlineStr">
         <is>
-          <t>连身衣</t>
+          <t>外套</t>
         </is>
       </c>
       <c r="H61" s="2" t="inlineStr">
         <is>
-          <t>连身衣</t>
+          <t>上衣</t>
         </is>
       </c>
       <c r="I61" s="2" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -2981,37 +2981,37 @@
       </c>
       <c r="C62" s="2" t="inlineStr">
         <is>
-          <t>2020A MM</t>
+          <t>2019X MM</t>
         </is>
       </c>
       <c r="D62" s="2" t="inlineStr">
         <is>
-          <t/>
+          <t>连身衣-连身衣</t>
         </is>
       </c>
       <c r="E62" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C7671989</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C1553105</t>
         </is>
       </c>
       <c r="F62" s="2" t="inlineStr">
         <is>
-          <t/>
+          <t>服装</t>
         </is>
       </c>
       <c r="G62" s="2" t="inlineStr">
         <is>
-          <t/>
+          <t>连身衣</t>
         </is>
       </c>
       <c r="H62" s="2" t="inlineStr">
         <is>
-          <t/>
+          <t>连身衣</t>
         </is>
       </c>
       <c r="I62" s="2" t="inlineStr">
         <is>
-          <t/>
+          <t>50</t>
         </is>
       </c>
     </row>
@@ -3033,12 +3033,12 @@
       </c>
       <c r="D63" s="2" t="inlineStr">
         <is>
-          <t/>
+          <t>下装-裙子</t>
         </is>
       </c>
       <c r="E63" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C7671992</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C7671989</t>
         </is>
       </c>
       <c r="F63" s="2" t="inlineStr">
@@ -3053,7 +3053,7 @@
       </c>
       <c r="H63" s="2" t="inlineStr">
         <is>
-          <t>裤子</t>
+          <t>裙子</t>
         </is>
       </c>
       <c r="I63" s="2" t="inlineStr">
@@ -3080,12 +3080,12 @@
       </c>
       <c r="D64" s="2" t="inlineStr">
         <is>
-          <t>内搭-单服装</t>
+          <t>下装-裤子</t>
         </is>
       </c>
       <c r="E64" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C7671949</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C7671992</t>
         </is>
       </c>
       <c r="F64" s="2" t="inlineStr">
@@ -3095,12 +3095,12 @@
       </c>
       <c r="G64" s="2" t="inlineStr">
         <is>
-          <t>内搭</t>
+          <t>下装</t>
         </is>
       </c>
       <c r="H64" s="2" t="inlineStr">
         <is>
-          <t>单服装</t>
+          <t>裤子</t>
         </is>
       </c>
       <c r="I64" s="2" t="inlineStr">
@@ -3127,12 +3127,12 @@
       </c>
       <c r="D65" s="2" t="inlineStr">
         <is>
-          <t>内搭-毛衫</t>
+          <t>内搭-单服装</t>
         </is>
       </c>
       <c r="E65" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C7368508</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C7671949</t>
         </is>
       </c>
       <c r="F65" s="2" t="inlineStr">
@@ -3147,7 +3147,7 @@
       </c>
       <c r="H65" s="2" t="inlineStr">
         <is>
-          <t>毛衫</t>
+          <t>单服装</t>
         </is>
       </c>
       <c r="I65" s="2" t="inlineStr">
@@ -3174,12 +3174,12 @@
       </c>
       <c r="D66" s="2" t="inlineStr">
         <is>
-          <t>内搭-针织衫</t>
+          <t>内搭-毛衫</t>
         </is>
       </c>
       <c r="E66" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C7671972</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C7368508</t>
         </is>
       </c>
       <c r="F66" s="2" t="inlineStr">
@@ -3194,7 +3194,7 @@
       </c>
       <c r="H66" s="2" t="inlineStr">
         <is>
-          <t>针织衫</t>
+          <t>毛衫</t>
         </is>
       </c>
       <c r="I66" s="2" t="inlineStr">
@@ -3221,12 +3221,12 @@
       </c>
       <c r="D67" s="2" t="inlineStr">
         <is>
-          <t>外套-上衣</t>
+          <t>内搭-针织衫</t>
         </is>
       </c>
       <c r="E67" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C7672001</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C7671972</t>
         </is>
       </c>
       <c r="F67" s="2" t="inlineStr">
@@ -3236,12 +3236,12 @@
       </c>
       <c r="G67" s="2" t="inlineStr">
         <is>
-          <t>外套</t>
+          <t>内搭</t>
         </is>
       </c>
       <c r="H67" s="2" t="inlineStr">
         <is>
-          <t>上衣</t>
+          <t>针织衫</t>
         </is>
       </c>
       <c r="I67" s="2" t="inlineStr">
@@ -3268,12 +3268,12 @@
       </c>
       <c r="D68" s="2" t="inlineStr">
         <is>
-          <t>外套-大衣</t>
+          <t>外套-上衣</t>
         </is>
       </c>
       <c r="E68" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C9713477</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C7672001</t>
         </is>
       </c>
       <c r="F68" s="2" t="inlineStr">
@@ -3288,7 +3288,7 @@
       </c>
       <c r="H68" s="2" t="inlineStr">
         <is>
-          <t>大衣</t>
+          <t>上衣</t>
         </is>
       </c>
       <c r="I68" s="2" t="inlineStr">
@@ -3315,12 +3315,12 @@
       </c>
       <c r="D69" s="2" t="inlineStr">
         <is>
-          <t>外套-棉衣</t>
+          <t>外套-大衣</t>
         </is>
       </c>
       <c r="E69" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C7672015</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C9713477</t>
         </is>
       </c>
       <c r="F69" s="2" t="inlineStr">
@@ -3335,7 +3335,7 @@
       </c>
       <c r="H69" s="2" t="inlineStr">
         <is>
-          <t>棉衣</t>
+          <t>大衣</t>
         </is>
       </c>
       <c r="I69" s="2" t="inlineStr">
@@ -3362,12 +3362,12 @@
       </c>
       <c r="D70" s="2" t="inlineStr">
         <is>
-          <t>外套-风衣</t>
+          <t>外套-棉衣</t>
         </is>
       </c>
       <c r="E70" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C7671976</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C7672015</t>
         </is>
       </c>
       <c r="F70" s="2" t="inlineStr">
@@ -3382,7 +3382,7 @@
       </c>
       <c r="H70" s="2" t="inlineStr">
         <is>
-          <t>风衣</t>
+          <t>棉衣</t>
         </is>
       </c>
       <c r="I70" s="2" t="inlineStr">
@@ -3409,12 +3409,12 @@
       </c>
       <c r="D71" s="2" t="inlineStr">
         <is>
-          <t>连身衣-连身衣</t>
+          <t>外套-风衣</t>
         </is>
       </c>
       <c r="E71" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C7671997</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C7671976</t>
         </is>
       </c>
       <c r="F71" s="2" t="inlineStr">
@@ -3424,12 +3424,12 @@
       </c>
       <c r="G71" s="2" t="inlineStr">
         <is>
-          <t>连身衣</t>
+          <t>外套</t>
         </is>
       </c>
       <c r="H71" s="2" t="inlineStr">
         <is>
-          <t>连身衣</t>
+          <t>风衣</t>
         </is>
       </c>
       <c r="I71" s="2" t="inlineStr">
@@ -3456,27 +3456,27 @@
       </c>
       <c r="D72" s="2" t="inlineStr">
         <is>
-          <t>配饰-包</t>
+          <t>连身衣-连身衣</t>
         </is>
       </c>
       <c r="E72" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C9489968</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C7671997</t>
         </is>
       </c>
       <c r="F72" s="2" t="inlineStr">
         <is>
-          <t>配饰</t>
+          <t>服装</t>
         </is>
       </c>
       <c r="G72" s="2" t="inlineStr">
         <is>
-          <t>配饰</t>
+          <t>连身衣</t>
         </is>
       </c>
       <c r="H72" s="2" t="inlineStr">
         <is>
-          <t>包</t>
+          <t>连身衣</t>
         </is>
       </c>
       <c r="I72" s="2" t="inlineStr">
@@ -3503,12 +3503,12 @@
       </c>
       <c r="D73" s="2" t="inlineStr">
         <is>
-          <t>配饰-围巾</t>
+          <t>配饰-包</t>
         </is>
       </c>
       <c r="E73" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C8838634</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C9489968</t>
         </is>
       </c>
       <c r="F73" s="2" t="inlineStr">
@@ -3523,7 +3523,7 @@
       </c>
       <c r="H73" s="2" t="inlineStr">
         <is>
-          <t>围巾</t>
+          <t>包</t>
         </is>
       </c>
       <c r="I73" s="2" t="inlineStr">
@@ -3550,12 +3550,12 @@
       </c>
       <c r="D74" s="2" t="inlineStr">
         <is>
-          <t>配饰-腰带</t>
+          <t>配饰-围巾</t>
         </is>
       </c>
       <c r="E74" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C8983129</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C8838634</t>
         </is>
       </c>
       <c r="F74" s="2" t="inlineStr">
@@ -3570,7 +3570,7 @@
       </c>
       <c r="H74" s="2" t="inlineStr">
         <is>
-          <t>腰带</t>
+          <t>围巾</t>
         </is>
       </c>
       <c r="I74" s="2" t="inlineStr">
@@ -3597,12 +3597,12 @@
       </c>
       <c r="D75" s="2" t="inlineStr">
         <is>
-          <t>配饰-袜子</t>
+          <t>配饰-腰带</t>
         </is>
       </c>
       <c r="E75" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C9041041</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C8983129</t>
         </is>
       </c>
       <c r="F75" s="2" t="inlineStr">
@@ -3617,7 +3617,7 @@
       </c>
       <c r="H75" s="2" t="inlineStr">
         <is>
-          <t>袜子</t>
+          <t>腰带</t>
         </is>
       </c>
       <c r="I75" s="2" t="inlineStr">
@@ -3644,12 +3644,12 @@
       </c>
       <c r="D76" s="2" t="inlineStr">
         <is>
-          <t>配饰-赠品</t>
+          <t>配饰-袜子</t>
         </is>
       </c>
       <c r="E76" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C9650345</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C9041041</t>
         </is>
       </c>
       <c r="F76" s="2" t="inlineStr">
@@ -3664,7 +3664,7 @@
       </c>
       <c r="H76" s="2" t="inlineStr">
         <is>
-          <t>赠品</t>
+          <t>袜子</t>
         </is>
       </c>
       <c r="I76" s="2" t="inlineStr">
@@ -3686,17 +3686,17 @@
       </c>
       <c r="C77" s="2" t="inlineStr">
         <is>
-          <t>2020S MM</t>
+          <t>2020A MM</t>
         </is>
       </c>
       <c r="D77" s="2" t="inlineStr">
         <is>
-          <t/>
+          <t>配饰-赠品</t>
         </is>
       </c>
       <c r="E77" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C7806357</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C9650345</t>
         </is>
       </c>
       <c r="F77" s="2" t="inlineStr">
@@ -3706,12 +3706,12 @@
       </c>
       <c r="G77" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>配饰</t>
         </is>
       </c>
       <c r="H77" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>赠品</t>
         </is>
       </c>
       <c r="I77" s="2" t="inlineStr">
@@ -3738,27 +3738,27 @@
       </c>
       <c r="D78" s="2" t="inlineStr">
         <is>
-          <t>下装-裙子</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E78" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C5031938</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C7806357</t>
         </is>
       </c>
       <c r="F78" s="2" t="inlineStr">
         <is>
-          <t>服装</t>
+          <t>配饰</t>
         </is>
       </c>
       <c r="G78" s="2" t="inlineStr">
         <is>
-          <t>下装</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="H78" s="2" t="inlineStr">
         <is>
-          <t>裙子</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="I78" s="2" t="inlineStr">
@@ -3785,12 +3785,12 @@
       </c>
       <c r="D79" s="2" t="inlineStr">
         <is>
-          <t>下装-裤子</t>
+          <t>下装-裙子</t>
         </is>
       </c>
       <c r="E79" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C5031426</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C5031938</t>
         </is>
       </c>
       <c r="F79" s="2" t="inlineStr">
@@ -3805,7 +3805,7 @@
       </c>
       <c r="H79" s="2" t="inlineStr">
         <is>
-          <t>裤子</t>
+          <t>裙子</t>
         </is>
       </c>
       <c r="I79" s="2" t="inlineStr">
@@ -3832,12 +3832,12 @@
       </c>
       <c r="D80" s="2" t="inlineStr">
         <is>
-          <t>内搭-单服装</t>
+          <t>下装-裤子</t>
         </is>
       </c>
       <c r="E80" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C5031942</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C5031426</t>
         </is>
       </c>
       <c r="F80" s="2" t="inlineStr">
@@ -3847,12 +3847,12 @@
       </c>
       <c r="G80" s="2" t="inlineStr">
         <is>
-          <t>内搭</t>
+          <t>下装</t>
         </is>
       </c>
       <c r="H80" s="2" t="inlineStr">
         <is>
-          <t>单服装</t>
+          <t>裤子</t>
         </is>
       </c>
       <c r="I80" s="2" t="inlineStr">
@@ -3879,12 +3879,12 @@
       </c>
       <c r="D81" s="2" t="inlineStr">
         <is>
-          <t>内搭-毛衫</t>
+          <t>内搭-单服装</t>
         </is>
       </c>
       <c r="E81" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C6078520</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C5031942</t>
         </is>
       </c>
       <c r="F81" s="2" t="inlineStr">
@@ -3899,7 +3899,7 @@
       </c>
       <c r="H81" s="2" t="inlineStr">
         <is>
-          <t>毛衫</t>
+          <t>单服装</t>
         </is>
       </c>
       <c r="I81" s="2" t="inlineStr">
@@ -3926,12 +3926,12 @@
       </c>
       <c r="D82" s="2" t="inlineStr">
         <is>
-          <t>内搭-针织衫</t>
+          <t>内搭-毛衫</t>
         </is>
       </c>
       <c r="E82" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C5467648</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C6078520</t>
         </is>
       </c>
       <c r="F82" s="2" t="inlineStr">
@@ -3946,7 +3946,7 @@
       </c>
       <c r="H82" s="2" t="inlineStr">
         <is>
-          <t>针织衫</t>
+          <t>毛衫</t>
         </is>
       </c>
       <c r="I82" s="2" t="inlineStr">
@@ -3973,12 +3973,12 @@
       </c>
       <c r="D83" s="2" t="inlineStr">
         <is>
-          <t>外套-上衣</t>
+          <t>内搭-针织衫</t>
         </is>
       </c>
       <c r="E83" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C4381441</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C5467648</t>
         </is>
       </c>
       <c r="F83" s="2" t="inlineStr">
@@ -3988,12 +3988,12 @@
       </c>
       <c r="G83" s="2" t="inlineStr">
         <is>
-          <t>外套</t>
+          <t>内搭</t>
         </is>
       </c>
       <c r="H83" s="2" t="inlineStr">
         <is>
-          <t>上衣</t>
+          <t>针织衫</t>
         </is>
       </c>
       <c r="I83" s="2" t="inlineStr">
@@ -4020,12 +4020,12 @@
       </c>
       <c r="D84" s="2" t="inlineStr">
         <is>
-          <t>外套-风衣</t>
+          <t>外套-上衣</t>
         </is>
       </c>
       <c r="E84" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C5293092</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C4381441</t>
         </is>
       </c>
       <c r="F84" s="2" t="inlineStr">
@@ -4040,7 +4040,7 @@
       </c>
       <c r="H84" s="2" t="inlineStr">
         <is>
-          <t>风衣</t>
+          <t>上衣</t>
         </is>
       </c>
       <c r="I84" s="2" t="inlineStr">
@@ -4067,12 +4067,12 @@
       </c>
       <c r="D85" s="2" t="inlineStr">
         <is>
-          <t>连身衣-连身衣</t>
+          <t>外套-风衣</t>
         </is>
       </c>
       <c r="E85" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C5031423</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C5293092</t>
         </is>
       </c>
       <c r="F85" s="2" t="inlineStr">
@@ -4082,12 +4082,12 @@
       </c>
       <c r="G85" s="2" t="inlineStr">
         <is>
-          <t>连身衣</t>
+          <t>外套</t>
         </is>
       </c>
       <c r="H85" s="2" t="inlineStr">
         <is>
-          <t>连身衣</t>
+          <t>风衣</t>
         </is>
       </c>
       <c r="I85" s="2" t="inlineStr">
@@ -4114,27 +4114,27 @@
       </c>
       <c r="D86" s="2" t="inlineStr">
         <is>
-          <t>配饰-腰带</t>
+          <t>连身衣-连身衣</t>
         </is>
       </c>
       <c r="E86" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C6456172</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C5031423</t>
         </is>
       </c>
       <c r="F86" s="2" t="inlineStr">
         <is>
-          <t>配饰</t>
+          <t>服装</t>
         </is>
       </c>
       <c r="G86" s="2" t="inlineStr">
         <is>
-          <t>配饰</t>
+          <t>连身衣</t>
         </is>
       </c>
       <c r="H86" s="2" t="inlineStr">
         <is>
-          <t>腰带</t>
+          <t>连身衣</t>
         </is>
       </c>
       <c r="I86" s="2" t="inlineStr">
@@ -4161,12 +4161,12 @@
       </c>
       <c r="D87" s="2" t="inlineStr">
         <is>
-          <t>配饰-赠品</t>
+          <t>配饰-腰带</t>
         </is>
       </c>
       <c r="E87" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C7439281</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C6456172</t>
         </is>
       </c>
       <c r="F87" s="2" t="inlineStr">
@@ -4181,7 +4181,7 @@
       </c>
       <c r="H87" s="2" t="inlineStr">
         <is>
-          <t>赠品</t>
+          <t>腰带</t>
         </is>
       </c>
       <c r="I87" s="2" t="inlineStr">
@@ -4208,17 +4208,17 @@
       </c>
       <c r="D88" s="2" t="inlineStr">
         <is>
-          <t>配饰-鞋</t>
+          <t>配饰-赠品</t>
         </is>
       </c>
       <c r="E88" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C6510313</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C7439281</t>
         </is>
       </c>
       <c r="F88" s="2" t="inlineStr">
         <is>
-          <t>服装</t>
+          <t>配饰</t>
         </is>
       </c>
       <c r="G88" s="2" t="inlineStr">
@@ -4228,7 +4228,7 @@
       </c>
       <c r="H88" s="2" t="inlineStr">
         <is>
-          <t>鞋</t>
+          <t>赠品</t>
         </is>
       </c>
       <c r="I88" s="2" t="inlineStr">
@@ -4250,32 +4250,32 @@
       </c>
       <c r="C89" s="2" t="inlineStr">
         <is>
-          <t>2020W MM</t>
+          <t>2020S MM</t>
         </is>
       </c>
       <c r="D89" s="2" t="inlineStr">
         <is>
-          <t/>
+          <t>配饰-鞋</t>
         </is>
       </c>
       <c r="E89" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C9263622</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C6510313</t>
         </is>
       </c>
       <c r="F89" s="2" t="inlineStr">
         <is>
-          <t/>
+          <t>服装</t>
         </is>
       </c>
       <c r="G89" s="2" t="inlineStr">
         <is>
-          <t>下装</t>
+          <t>配饰</t>
         </is>
       </c>
       <c r="H89" s="2" t="inlineStr">
         <is>
-          <t>裙子</t>
+          <t>鞋</t>
         </is>
       </c>
       <c r="I89" s="2" t="inlineStr">
@@ -4302,12 +4302,12 @@
       </c>
       <c r="D90" s="2" t="inlineStr">
         <is>
-          <t>下装-裤子</t>
+          <t>下装-裙子</t>
         </is>
       </c>
       <c r="E90" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C9238896</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C9263622</t>
         </is>
       </c>
       <c r="F90" s="2" t="inlineStr">
@@ -4322,7 +4322,7 @@
       </c>
       <c r="H90" s="2" t="inlineStr">
         <is>
-          <t>裤子</t>
+          <t>裙子</t>
         </is>
       </c>
       <c r="I90" s="2" t="inlineStr">
@@ -4349,12 +4349,12 @@
       </c>
       <c r="D91" s="2" t="inlineStr">
         <is>
-          <t>内搭-单服装</t>
+          <t>下装-裤子</t>
         </is>
       </c>
       <c r="E91" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C7606596</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C9238896</t>
         </is>
       </c>
       <c r="F91" s="2" t="inlineStr">
@@ -4364,12 +4364,12 @@
       </c>
       <c r="G91" s="2" t="inlineStr">
         <is>
-          <t>内搭</t>
+          <t>下装</t>
         </is>
       </c>
       <c r="H91" s="2" t="inlineStr">
         <is>
-          <t>单服装</t>
+          <t>裤子</t>
         </is>
       </c>
       <c r="I91" s="2" t="inlineStr">
@@ -4396,12 +4396,12 @@
       </c>
       <c r="D92" s="2" t="inlineStr">
         <is>
-          <t>内搭-毛衫</t>
+          <t>内搭-单服装</t>
         </is>
       </c>
       <c r="E92" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C9215213</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C7606596</t>
         </is>
       </c>
       <c r="F92" s="2" t="inlineStr">
@@ -4416,7 +4416,7 @@
       </c>
       <c r="H92" s="2" t="inlineStr">
         <is>
-          <t>毛衫</t>
+          <t>单服装</t>
         </is>
       </c>
       <c r="I92" s="2" t="inlineStr">
@@ -4443,12 +4443,12 @@
       </c>
       <c r="D93" s="2" t="inlineStr">
         <is>
-          <t>内搭-针织衫</t>
+          <t>内搭-毛衫</t>
         </is>
       </c>
       <c r="E93" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C9203607</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C9215213</t>
         </is>
       </c>
       <c r="F93" s="2" t="inlineStr">
@@ -4463,7 +4463,7 @@
       </c>
       <c r="H93" s="2" t="inlineStr">
         <is>
-          <t>针织衫</t>
+          <t>毛衫</t>
         </is>
       </c>
       <c r="I93" s="2" t="inlineStr">
@@ -4490,12 +4490,12 @@
       </c>
       <c r="D94" s="2" t="inlineStr">
         <is>
-          <t>外套-上衣</t>
+          <t>内搭-针织衫</t>
         </is>
       </c>
       <c r="E94" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C9449472</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C9203607</t>
         </is>
       </c>
       <c r="F94" s="2" t="inlineStr">
@@ -4505,12 +4505,12 @@
       </c>
       <c r="G94" s="2" t="inlineStr">
         <is>
-          <t>外套</t>
+          <t>内搭</t>
         </is>
       </c>
       <c r="H94" s="2" t="inlineStr">
         <is>
-          <t>上衣</t>
+          <t>针织衫</t>
         </is>
       </c>
       <c r="I94" s="2" t="inlineStr">
@@ -4537,12 +4537,12 @@
       </c>
       <c r="D95" s="2" t="inlineStr">
         <is>
-          <t>外套-大衣</t>
+          <t>外套-上衣</t>
         </is>
       </c>
       <c r="E95" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C8068451</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C9449472</t>
         </is>
       </c>
       <c r="F95" s="2" t="inlineStr">
@@ -4557,7 +4557,7 @@
       </c>
       <c r="H95" s="2" t="inlineStr">
         <is>
-          <t>大衣</t>
+          <t>上衣</t>
         </is>
       </c>
       <c r="I95" s="2" t="inlineStr">
@@ -4584,12 +4584,12 @@
       </c>
       <c r="D96" s="2" t="inlineStr">
         <is>
-          <t>外套-棉衣</t>
+          <t>外套-大衣</t>
         </is>
       </c>
       <c r="E96" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C6916380</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C8068451</t>
         </is>
       </c>
       <c r="F96" s="2" t="inlineStr">
@@ -4604,7 +4604,7 @@
       </c>
       <c r="H96" s="2" t="inlineStr">
         <is>
-          <t>棉衣</t>
+          <t>大衣</t>
         </is>
       </c>
       <c r="I96" s="2" t="inlineStr">
@@ -4631,12 +4631,12 @@
       </c>
       <c r="D97" s="2" t="inlineStr">
         <is>
-          <t>连身衣-连身衣</t>
+          <t>外套-棉衣</t>
         </is>
       </c>
       <c r="E97" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C9204619</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C6916380</t>
         </is>
       </c>
       <c r="F97" s="2" t="inlineStr">
@@ -4646,12 +4646,12 @@
       </c>
       <c r="G97" s="2" t="inlineStr">
         <is>
-          <t>连身衣</t>
+          <t>外套</t>
         </is>
       </c>
       <c r="H97" s="2" t="inlineStr">
         <is>
-          <t>连身衣</t>
+          <t>棉衣</t>
         </is>
       </c>
       <c r="I97" s="2" t="inlineStr">
@@ -4678,27 +4678,27 @@
       </c>
       <c r="D98" s="2" t="inlineStr">
         <is>
-          <t>配饰-围巾</t>
+          <t>连身衣-连身衣</t>
         </is>
       </c>
       <c r="E98" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C9205374</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C9204619</t>
         </is>
       </c>
       <c r="F98" s="2" t="inlineStr">
         <is>
-          <t>配饰</t>
+          <t>服装</t>
         </is>
       </c>
       <c r="G98" s="2" t="inlineStr">
         <is>
-          <t>配饰</t>
+          <t>连身衣</t>
         </is>
       </c>
       <c r="H98" s="2" t="inlineStr">
         <is>
-          <t>围巾</t>
+          <t>连身衣</t>
         </is>
       </c>
       <c r="I98" s="2" t="inlineStr">
@@ -4725,12 +4725,12 @@
       </c>
       <c r="D99" s="2" t="inlineStr">
         <is>
-          <t>配饰-帽子</t>
+          <t>配饰-围巾</t>
         </is>
       </c>
       <c r="E99" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C10786885</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C9205374</t>
         </is>
       </c>
       <c r="F99" s="2" t="inlineStr">
@@ -4745,7 +4745,7 @@
       </c>
       <c r="H99" s="2" t="inlineStr">
         <is>
-          <t>帽子</t>
+          <t>围巾</t>
         </is>
       </c>
       <c r="I99" s="2" t="inlineStr">
@@ -4772,12 +4772,12 @@
       </c>
       <c r="D100" s="2" t="inlineStr">
         <is>
-          <t>配饰-腰带</t>
+          <t>配饰-帽子</t>
         </is>
       </c>
       <c r="E100" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C9931522</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C10786885</t>
         </is>
       </c>
       <c r="F100" s="2" t="inlineStr">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="H100" s="2" t="inlineStr">
         <is>
-          <t>腰带</t>
+          <t>帽子</t>
         </is>
       </c>
       <c r="I100" s="2" t="inlineStr">
@@ -4814,37 +4814,37 @@
       </c>
       <c r="C101" s="2" t="inlineStr">
         <is>
-          <t>2020X MM</t>
+          <t>2020W MM</t>
         </is>
       </c>
       <c r="D101" s="2" t="inlineStr">
         <is>
-          <t/>
+          <t>配饰-腰带</t>
         </is>
       </c>
       <c r="E101" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C308820</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C9931522</t>
         </is>
       </c>
       <c r="F101" s="2" t="inlineStr">
         <is>
-          <t/>
+          <t>配饰</t>
         </is>
       </c>
       <c r="G101" s="2" t="inlineStr">
         <is>
-          <t/>
+          <t>配饰</t>
         </is>
       </c>
       <c r="H101" s="2" t="inlineStr">
         <is>
-          <t/>
+          <t>腰带</t>
         </is>
       </c>
       <c r="I101" s="2" t="inlineStr">
         <is>
-          <t/>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -4866,12 +4866,12 @@
       </c>
       <c r="D102" s="2" t="inlineStr">
         <is>
-          <t>下装-裤子</t>
+          <t>下装-裙子</t>
         </is>
       </c>
       <c r="E102" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C308823</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C308820</t>
         </is>
       </c>
       <c r="F102" s="2" t="inlineStr">
@@ -4886,12 +4886,12 @@
       </c>
       <c r="H102" s="2" t="inlineStr">
         <is>
-          <t>裤子</t>
+          <t>裙子</t>
         </is>
       </c>
       <c r="I102" s="2" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -4913,12 +4913,12 @@
       </c>
       <c r="D103" s="2" t="inlineStr">
         <is>
-          <t>内搭-单服装</t>
+          <t>下装-裤子</t>
         </is>
       </c>
       <c r="E103" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C308827</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C308823</t>
         </is>
       </c>
       <c r="F103" s="2" t="inlineStr">
@@ -4928,17 +4928,17 @@
       </c>
       <c r="G103" s="2" t="inlineStr">
         <is>
-          <t>内搭</t>
+          <t>下装</t>
         </is>
       </c>
       <c r="H103" s="2" t="inlineStr">
         <is>
-          <t>单服装</t>
+          <t>裤子</t>
         </is>
       </c>
       <c r="I103" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>30</t>
         </is>
       </c>
     </row>
@@ -4960,12 +4960,12 @@
       </c>
       <c r="D104" s="2" t="inlineStr">
         <is>
-          <t>内搭-毛衫</t>
+          <t>内搭-单服装</t>
         </is>
       </c>
       <c r="E104" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C308817</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C308827</t>
         </is>
       </c>
       <c r="F104" s="2" t="inlineStr">
@@ -4980,7 +4980,7 @@
       </c>
       <c r="H104" s="2" t="inlineStr">
         <is>
-          <t>毛衫</t>
+          <t>单服装</t>
         </is>
       </c>
       <c r="I104" s="2" t="inlineStr">
@@ -5007,12 +5007,12 @@
       </c>
       <c r="D105" s="2" t="inlineStr">
         <is>
-          <t>内搭-针织衫</t>
+          <t>内搭-毛衫</t>
         </is>
       </c>
       <c r="E105" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C308814</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C308817</t>
         </is>
       </c>
       <c r="F105" s="2" t="inlineStr">
@@ -5027,7 +5027,7 @@
       </c>
       <c r="H105" s="2" t="inlineStr">
         <is>
-          <t>针织衫</t>
+          <t>毛衫</t>
         </is>
       </c>
       <c r="I105" s="2" t="inlineStr">
@@ -5054,12 +5054,12 @@
       </c>
       <c r="D106" s="2" t="inlineStr">
         <is>
-          <t>外套-上衣</t>
+          <t>内搭-针织衫</t>
         </is>
       </c>
       <c r="E106" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C308808</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C308814</t>
         </is>
       </c>
       <c r="F106" s="2" t="inlineStr">
@@ -5069,12 +5069,12 @@
       </c>
       <c r="G106" s="2" t="inlineStr">
         <is>
-          <t>外套</t>
+          <t>内搭</t>
         </is>
       </c>
       <c r="H106" s="2" t="inlineStr">
         <is>
-          <t>上衣</t>
+          <t>针织衫</t>
         </is>
       </c>
       <c r="I106" s="2" t="inlineStr">
@@ -5101,12 +5101,12 @@
       </c>
       <c r="D107" s="2" t="inlineStr">
         <is>
-          <t>外套-大衣</t>
+          <t>外套-上衣</t>
         </is>
       </c>
       <c r="E107" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C308802</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C308808</t>
         </is>
       </c>
       <c r="F107" s="2" t="inlineStr">
@@ -5121,7 +5121,7 @@
       </c>
       <c r="H107" s="2" t="inlineStr">
         <is>
-          <t>大衣</t>
+          <t>上衣</t>
         </is>
       </c>
       <c r="I107" s="2" t="inlineStr">
@@ -5148,12 +5148,12 @@
       </c>
       <c r="D108" s="2" t="inlineStr">
         <is>
-          <t>外套-棉衣</t>
+          <t>外套-大衣</t>
         </is>
       </c>
       <c r="E108" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C308805</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C308802</t>
         </is>
       </c>
       <c r="F108" s="2" t="inlineStr">
@@ -5168,7 +5168,7 @@
       </c>
       <c r="H108" s="2" t="inlineStr">
         <is>
-          <t>棉衣</t>
+          <t>大衣</t>
         </is>
       </c>
       <c r="I108" s="2" t="inlineStr">
@@ -5195,12 +5195,12 @@
       </c>
       <c r="D109" s="2" t="inlineStr">
         <is>
-          <t>外套-风衣</t>
+          <t>外套-棉衣</t>
         </is>
       </c>
       <c r="E109" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C308799</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C308805</t>
         </is>
       </c>
       <c r="F109" s="2" t="inlineStr">
@@ -5215,7 +5215,7 @@
       </c>
       <c r="H109" s="2" t="inlineStr">
         <is>
-          <t>风衣</t>
+          <t>棉衣</t>
         </is>
       </c>
       <c r="I109" s="2" t="inlineStr">
@@ -5242,12 +5242,12 @@
       </c>
       <c r="D110" s="2" t="inlineStr">
         <is>
-          <t>连身衣-连身衣</t>
+          <t>外套-风衣</t>
         </is>
       </c>
       <c r="E110" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C308811</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C308799</t>
         </is>
       </c>
       <c r="F110" s="2" t="inlineStr">
@@ -5257,12 +5257,12 @@
       </c>
       <c r="G110" s="2" t="inlineStr">
         <is>
-          <t>连身衣</t>
+          <t>外套</t>
         </is>
       </c>
       <c r="H110" s="2" t="inlineStr">
         <is>
-          <t>连身衣</t>
+          <t>风衣</t>
         </is>
       </c>
       <c r="I110" s="2" t="inlineStr">
@@ -5289,27 +5289,27 @@
       </c>
       <c r="D111" s="2" t="inlineStr">
         <is>
-          <t>配饰-包</t>
+          <t>连身衣-连身衣</t>
         </is>
       </c>
       <c r="E111" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C8417930</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C308811</t>
         </is>
       </c>
       <c r="F111" s="2" t="inlineStr">
         <is>
-          <t>配饰</t>
+          <t>服装</t>
         </is>
       </c>
       <c r="G111" s="2" t="inlineStr">
         <is>
-          <t>配饰</t>
+          <t>连身衣</t>
         </is>
       </c>
       <c r="H111" s="2" t="inlineStr">
         <is>
-          <t>包</t>
+          <t>连身衣</t>
         </is>
       </c>
       <c r="I111" s="2" t="inlineStr">
@@ -5336,12 +5336,12 @@
       </c>
       <c r="D112" s="2" t="inlineStr">
         <is>
-          <t>配饰-围巾</t>
+          <t>配饰-包</t>
         </is>
       </c>
       <c r="E112" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C8763892</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C8417930</t>
         </is>
       </c>
       <c r="F112" s="2" t="inlineStr">
@@ -5356,7 +5356,7 @@
       </c>
       <c r="H112" s="2" t="inlineStr">
         <is>
-          <t>围巾</t>
+          <t>包</t>
         </is>
       </c>
       <c r="I112" s="2" t="inlineStr">
@@ -5383,12 +5383,12 @@
       </c>
       <c r="D113" s="2" t="inlineStr">
         <is>
-          <t>配饰-腰带</t>
+          <t>配饰-围巾</t>
         </is>
       </c>
       <c r="E113" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C7680388</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C8763892</t>
         </is>
       </c>
       <c r="F113" s="2" t="inlineStr">
@@ -5403,7 +5403,7 @@
       </c>
       <c r="H113" s="2" t="inlineStr">
         <is>
-          <t>腰带</t>
+          <t>围巾</t>
         </is>
       </c>
       <c r="I113" s="2" t="inlineStr">
@@ -5430,12 +5430,12 @@
       </c>
       <c r="D114" s="2" t="inlineStr">
         <is>
-          <t>配饰-赠品</t>
+          <t>配饰-腰带</t>
         </is>
       </c>
       <c r="E114" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C8445607</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C7680388</t>
         </is>
       </c>
       <c r="F114" s="2" t="inlineStr">
@@ -5450,7 +5450,7 @@
       </c>
       <c r="H114" s="2" t="inlineStr">
         <is>
-          <t>赠品</t>
+          <t>腰带</t>
         </is>
       </c>
       <c r="I114" s="2" t="inlineStr">
@@ -5477,17 +5477,17 @@
       </c>
       <c r="D115" s="2" t="inlineStr">
         <is>
-          <t>配饰-鞋</t>
+          <t>配饰-赠品</t>
         </is>
       </c>
       <c r="E115" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C6539805</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C8445607</t>
         </is>
       </c>
       <c r="F115" s="2" t="inlineStr">
         <is>
-          <t>服装</t>
+          <t>配饰</t>
         </is>
       </c>
       <c r="G115" s="2" t="inlineStr">
@@ -5497,7 +5497,7 @@
       </c>
       <c r="H115" s="2" t="inlineStr">
         <is>
-          <t>鞋</t>
+          <t>赠品</t>
         </is>
       </c>
       <c r="I115" s="2" t="inlineStr">
@@ -5524,27 +5524,27 @@
       </c>
       <c r="D116" s="2" t="inlineStr">
         <is>
-          <t>配饰-饰品</t>
+          <t>配饰-鞋</t>
         </is>
       </c>
       <c r="E116" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C8537062</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C6539805</t>
         </is>
       </c>
       <c r="F116" s="2" t="inlineStr">
         <is>
+          <t>服装</t>
+        </is>
+      </c>
+      <c r="G116" s="2" t="inlineStr">
+        <is>
           <t>配饰</t>
         </is>
       </c>
-      <c r="G116" s="2" t="inlineStr">
-        <is>
-          <t>配饰</t>
-        </is>
-      </c>
       <c r="H116" s="2" t="inlineStr">
         <is>
-          <t>饰品</t>
+          <t>鞋</t>
         </is>
       </c>
       <c r="I116" s="2" t="inlineStr">
@@ -5566,32 +5566,32 @@
       </c>
       <c r="C117" s="2" t="inlineStr">
         <is>
-          <t>2021A MM</t>
+          <t>2020X MM</t>
         </is>
       </c>
       <c r="D117" s="2" t="inlineStr">
         <is>
-          <t/>
+          <t>配饰-饰品</t>
         </is>
       </c>
       <c r="E117" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C12274805</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C8537062</t>
         </is>
       </c>
       <c r="F117" s="2" t="inlineStr">
         <is>
-          <t>服装</t>
+          <t>配饰</t>
         </is>
       </c>
       <c r="G117" s="2" t="inlineStr">
         <is>
-          <t>下装</t>
+          <t>配饰</t>
         </is>
       </c>
       <c r="H117" s="2" t="inlineStr">
         <is>
-          <t>裙子</t>
+          <t>饰品</t>
         </is>
       </c>
       <c r="I117" s="2" t="inlineStr">
@@ -5618,12 +5618,12 @@
       </c>
       <c r="D118" s="2" t="inlineStr">
         <is>
-          <t>下装-裤子</t>
+          <t>下装-裙子</t>
         </is>
       </c>
       <c r="E118" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C12275499</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C12274805</t>
         </is>
       </c>
       <c r="F118" s="2" t="inlineStr">
@@ -5638,7 +5638,7 @@
       </c>
       <c r="H118" s="2" t="inlineStr">
         <is>
-          <t>裤子</t>
+          <t>裙子</t>
         </is>
       </c>
       <c r="I118" s="2" t="inlineStr">
@@ -5665,12 +5665,12 @@
       </c>
       <c r="D119" s="2" t="inlineStr">
         <is>
-          <t>内搭-单服装</t>
+          <t>下装-裤子</t>
         </is>
       </c>
       <c r="E119" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C12864250</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C12275499</t>
         </is>
       </c>
       <c r="F119" s="2" t="inlineStr">
@@ -5680,12 +5680,12 @@
       </c>
       <c r="G119" s="2" t="inlineStr">
         <is>
-          <t>内搭</t>
+          <t>下装</t>
         </is>
       </c>
       <c r="H119" s="2" t="inlineStr">
         <is>
-          <t>单服装</t>
+          <t>裤子</t>
         </is>
       </c>
       <c r="I119" s="2" t="inlineStr">
@@ -5712,12 +5712,12 @@
       </c>
       <c r="D120" s="2" t="inlineStr">
         <is>
-          <t>内搭-毛衫</t>
+          <t>内搭-单服装</t>
         </is>
       </c>
       <c r="E120" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C13315002</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C12864250</t>
         </is>
       </c>
       <c r="F120" s="2" t="inlineStr">
@@ -5732,7 +5732,7 @@
       </c>
       <c r="H120" s="2" t="inlineStr">
         <is>
-          <t>毛衫</t>
+          <t>单服装</t>
         </is>
       </c>
       <c r="I120" s="2" t="inlineStr">
@@ -5759,12 +5759,12 @@
       </c>
       <c r="D121" s="2" t="inlineStr">
         <is>
-          <t>内搭-针织衫</t>
+          <t>内搭-毛衫</t>
         </is>
       </c>
       <c r="E121" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C12273331</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C13315002</t>
         </is>
       </c>
       <c r="F121" s="2" t="inlineStr">
@@ -5779,7 +5779,7 @@
       </c>
       <c r="H121" s="2" t="inlineStr">
         <is>
-          <t>针织衫</t>
+          <t>毛衫</t>
         </is>
       </c>
       <c r="I121" s="2" t="inlineStr">
@@ -5806,12 +5806,12 @@
       </c>
       <c r="D122" s="2" t="inlineStr">
         <is>
-          <t>外套-上衣</t>
+          <t>内搭-针织衫</t>
         </is>
       </c>
       <c r="E122" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C12269953</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C12273331</t>
         </is>
       </c>
       <c r="F122" s="2" t="inlineStr">
@@ -5821,12 +5821,12 @@
       </c>
       <c r="G122" s="2" t="inlineStr">
         <is>
-          <t>外套</t>
+          <t>内搭</t>
         </is>
       </c>
       <c r="H122" s="2" t="inlineStr">
         <is>
-          <t>上衣</t>
+          <t>针织衫</t>
         </is>
       </c>
       <c r="I122" s="2" t="inlineStr">
@@ -5853,12 +5853,12 @@
       </c>
       <c r="D123" s="2" t="inlineStr">
         <is>
-          <t>外套-大衣</t>
+          <t>外套-上衣</t>
         </is>
       </c>
       <c r="E123" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C12272164</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C12269953</t>
         </is>
       </c>
       <c r="F123" s="2" t="inlineStr">
@@ -5873,7 +5873,7 @@
       </c>
       <c r="H123" s="2" t="inlineStr">
         <is>
-          <t>大衣</t>
+          <t>上衣</t>
         </is>
       </c>
       <c r="I123" s="2" t="inlineStr">
@@ -5900,12 +5900,12 @@
       </c>
       <c r="D124" s="2" t="inlineStr">
         <is>
-          <t>外套-棉衣</t>
+          <t>外套-大衣</t>
         </is>
       </c>
       <c r="E124" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C12271636</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C12272164</t>
         </is>
       </c>
       <c r="F124" s="2" t="inlineStr">
@@ -5920,7 +5920,7 @@
       </c>
       <c r="H124" s="2" t="inlineStr">
         <is>
-          <t>棉衣</t>
+          <t>大衣</t>
         </is>
       </c>
       <c r="I124" s="2" t="inlineStr">
@@ -5947,12 +5947,12 @@
       </c>
       <c r="D125" s="2" t="inlineStr">
         <is>
-          <t>外套-风衣</t>
+          <t>外套-棉衣</t>
         </is>
       </c>
       <c r="E125" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C12270879</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C12271636</t>
         </is>
       </c>
       <c r="F125" s="2" t="inlineStr">
@@ -5967,7 +5967,7 @@
       </c>
       <c r="H125" s="2" t="inlineStr">
         <is>
-          <t>风衣</t>
+          <t>棉衣</t>
         </is>
       </c>
       <c r="I125" s="2" t="inlineStr">
@@ -5994,12 +5994,12 @@
       </c>
       <c r="D126" s="2" t="inlineStr">
         <is>
-          <t>连身衣-连身衣</t>
+          <t>外套-风衣</t>
         </is>
       </c>
       <c r="E126" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C12272451</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C12270879</t>
         </is>
       </c>
       <c r="F126" s="2" t="inlineStr">
@@ -6009,12 +6009,12 @@
       </c>
       <c r="G126" s="2" t="inlineStr">
         <is>
-          <t>连身衣</t>
+          <t>外套</t>
         </is>
       </c>
       <c r="H126" s="2" t="inlineStr">
         <is>
-          <t>连身衣</t>
+          <t>风衣</t>
         </is>
       </c>
       <c r="I126" s="2" t="inlineStr">
@@ -6041,27 +6041,27 @@
       </c>
       <c r="D127" s="2" t="inlineStr">
         <is>
-          <t>配饰-围巾</t>
+          <t>连身衣-连身衣</t>
         </is>
       </c>
       <c r="E127" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C14278710</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C12272451</t>
         </is>
       </c>
       <c r="F127" s="2" t="inlineStr">
         <is>
-          <t>配饰</t>
+          <t>服装</t>
         </is>
       </c>
       <c r="G127" s="2" t="inlineStr">
         <is>
-          <t>配饰</t>
+          <t>连身衣</t>
         </is>
       </c>
       <c r="H127" s="2" t="inlineStr">
         <is>
-          <t>围巾</t>
+          <t>连身衣</t>
         </is>
       </c>
       <c r="I127" s="2" t="inlineStr">
@@ -6088,12 +6088,12 @@
       </c>
       <c r="D128" s="2" t="inlineStr">
         <is>
-          <t>配饰-腰带</t>
+          <t>配饰-围巾</t>
         </is>
       </c>
       <c r="E128" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C13902850</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C14278710</t>
         </is>
       </c>
       <c r="F128" s="2" t="inlineStr">
@@ -6108,7 +6108,7 @@
       </c>
       <c r="H128" s="2" t="inlineStr">
         <is>
-          <t>腰带</t>
+          <t>围巾</t>
         </is>
       </c>
       <c r="I128" s="2" t="inlineStr">
@@ -6130,32 +6130,32 @@
       </c>
       <c r="C129" s="2" t="inlineStr">
         <is>
-          <t>2021S MM</t>
+          <t>2021A MM</t>
         </is>
       </c>
       <c r="D129" s="2" t="inlineStr">
         <is>
-          <t/>
+          <t>配饰-腰带</t>
         </is>
       </c>
       <c r="E129" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C10086621</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C13902850</t>
         </is>
       </c>
       <c r="F129" s="2" t="inlineStr">
         <is>
-          <t>服装</t>
+          <t>配饰</t>
         </is>
       </c>
       <c r="G129" s="2" t="inlineStr">
         <is>
-          <t>下装</t>
+          <t>配饰</t>
         </is>
       </c>
       <c r="H129" s="2" t="inlineStr">
         <is>
-          <t>裙子</t>
+          <t>腰带</t>
         </is>
       </c>
       <c r="I129" s="2" t="inlineStr">
@@ -6182,12 +6182,12 @@
       </c>
       <c r="D130" s="2" t="inlineStr">
         <is>
-          <t>下装-裤子</t>
+          <t>下装-裙子</t>
         </is>
       </c>
       <c r="E130" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C10074062</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C10086621</t>
         </is>
       </c>
       <c r="F130" s="2" t="inlineStr">
@@ -6202,7 +6202,7 @@
       </c>
       <c r="H130" s="2" t="inlineStr">
         <is>
-          <t>裤子</t>
+          <t>裙子</t>
         </is>
       </c>
       <c r="I130" s="2" t="inlineStr">
@@ -6229,12 +6229,12 @@
       </c>
       <c r="D131" s="2" t="inlineStr">
         <is>
-          <t>内搭-单服装</t>
+          <t>下装-裤子</t>
         </is>
       </c>
       <c r="E131" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C10074066</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C10074062</t>
         </is>
       </c>
       <c r="F131" s="2" t="inlineStr">
@@ -6244,12 +6244,12 @@
       </c>
       <c r="G131" s="2" t="inlineStr">
         <is>
-          <t>内搭</t>
+          <t>下装</t>
         </is>
       </c>
       <c r="H131" s="2" t="inlineStr">
         <is>
-          <t>单服装</t>
+          <t>裤子</t>
         </is>
       </c>
       <c r="I131" s="2" t="inlineStr">
@@ -6276,12 +6276,12 @@
       </c>
       <c r="D132" s="2" t="inlineStr">
         <is>
-          <t>内搭-毛衫</t>
+          <t>内搭-单服装</t>
         </is>
       </c>
       <c r="E132" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C10735237</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C10074066</t>
         </is>
       </c>
       <c r="F132" s="2" t="inlineStr">
@@ -6296,7 +6296,7 @@
       </c>
       <c r="H132" s="2" t="inlineStr">
         <is>
-          <t>毛衫</t>
+          <t>单服装</t>
         </is>
       </c>
       <c r="I132" s="2" t="inlineStr">
@@ -6323,12 +6323,12 @@
       </c>
       <c r="D133" s="2" t="inlineStr">
         <is>
-          <t>内搭-针织衫</t>
+          <t>内搭-毛衫</t>
         </is>
       </c>
       <c r="E133" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C10185472</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C10735237</t>
         </is>
       </c>
       <c r="F133" s="2" t="inlineStr">
@@ -6343,7 +6343,7 @@
       </c>
       <c r="H133" s="2" t="inlineStr">
         <is>
-          <t>针织衫</t>
+          <t>毛衫</t>
         </is>
       </c>
       <c r="I133" s="2" t="inlineStr">
@@ -6370,12 +6370,12 @@
       </c>
       <c r="D134" s="2" t="inlineStr">
         <is>
-          <t>外套-上衣</t>
+          <t>内搭-针织衫</t>
         </is>
       </c>
       <c r="E134" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C9067882</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C10185472</t>
         </is>
       </c>
       <c r="F134" s="2" t="inlineStr">
@@ -6385,12 +6385,12 @@
       </c>
       <c r="G134" s="2" t="inlineStr">
         <is>
-          <t>外套</t>
+          <t>内搭</t>
         </is>
       </c>
       <c r="H134" s="2" t="inlineStr">
         <is>
-          <t>上衣</t>
+          <t>针织衫</t>
         </is>
       </c>
       <c r="I134" s="2" t="inlineStr">
@@ -6417,12 +6417,12 @@
       </c>
       <c r="D135" s="2" t="inlineStr">
         <is>
-          <t>外套-风衣</t>
+          <t>外套-上衣</t>
         </is>
       </c>
       <c r="E135" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C9300822</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C9067882</t>
         </is>
       </c>
       <c r="F135" s="2" t="inlineStr">
@@ -6437,7 +6437,7 @@
       </c>
       <c r="H135" s="2" t="inlineStr">
         <is>
-          <t>风衣</t>
+          <t>上衣</t>
         </is>
       </c>
       <c r="I135" s="2" t="inlineStr">
@@ -6464,12 +6464,12 @@
       </c>
       <c r="D136" s="2" t="inlineStr">
         <is>
-          <t>连身衣-连身衣</t>
+          <t>外套-风衣</t>
         </is>
       </c>
       <c r="E136" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C9361477</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C9300822</t>
         </is>
       </c>
       <c r="F136" s="2" t="inlineStr">
@@ -6479,12 +6479,12 @@
       </c>
       <c r="G136" s="2" t="inlineStr">
         <is>
-          <t>连身衣</t>
+          <t>外套</t>
         </is>
       </c>
       <c r="H136" s="2" t="inlineStr">
         <is>
-          <t>连身衣</t>
+          <t>风衣</t>
         </is>
       </c>
       <c r="I136" s="2" t="inlineStr">
@@ -6511,27 +6511,27 @@
       </c>
       <c r="D137" s="2" t="inlineStr">
         <is>
-          <t>配饰-围巾</t>
+          <t>连身衣-连身衣</t>
         </is>
       </c>
       <c r="E137" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C10748973</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C9361477</t>
         </is>
       </c>
       <c r="F137" s="2" t="inlineStr">
         <is>
-          <t>配饰</t>
+          <t>服装</t>
         </is>
       </c>
       <c r="G137" s="2" t="inlineStr">
         <is>
-          <t>配饰</t>
+          <t>连身衣</t>
         </is>
       </c>
       <c r="H137" s="2" t="inlineStr">
         <is>
-          <t>围巾</t>
+          <t>连身衣</t>
         </is>
       </c>
       <c r="I137" s="2" t="inlineStr">
@@ -6558,12 +6558,12 @@
       </c>
       <c r="D138" s="2" t="inlineStr">
         <is>
-          <t>配饰-帽子</t>
+          <t>配饰-围巾</t>
         </is>
       </c>
       <c r="E138" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C10748246</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C10748973</t>
         </is>
       </c>
       <c r="F138" s="2" t="inlineStr">
@@ -6578,7 +6578,7 @@
       </c>
       <c r="H138" s="2" t="inlineStr">
         <is>
-          <t>帽子</t>
+          <t>围巾</t>
         </is>
       </c>
       <c r="I138" s="2" t="inlineStr">
@@ -6605,12 +6605,12 @@
       </c>
       <c r="D139" s="2" t="inlineStr">
         <is>
-          <t>配饰-腰带</t>
+          <t>配饰-帽子</t>
         </is>
       </c>
       <c r="E139" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C10735797</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C10748246</t>
         </is>
       </c>
       <c r="F139" s="2" t="inlineStr">
@@ -6625,7 +6625,7 @@
       </c>
       <c r="H139" s="2" t="inlineStr">
         <is>
-          <t>腰带</t>
+          <t>帽子</t>
         </is>
       </c>
       <c r="I139" s="2" t="inlineStr">
@@ -6652,12 +6652,12 @@
       </c>
       <c r="D140" s="2" t="inlineStr">
         <is>
-          <t>配饰-赠品</t>
+          <t>配饰-腰带</t>
         </is>
       </c>
       <c r="E140" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C12839395</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C10735797</t>
         </is>
       </c>
       <c r="F140" s="2" t="inlineStr">
@@ -6672,7 +6672,7 @@
       </c>
       <c r="H140" s="2" t="inlineStr">
         <is>
-          <t>赠品</t>
+          <t>腰带</t>
         </is>
       </c>
       <c r="I140" s="2" t="inlineStr">
@@ -6699,12 +6699,12 @@
       </c>
       <c r="D141" s="2" t="inlineStr">
         <is>
-          <t>配饰-鞋</t>
+          <t>配饰-赠品</t>
         </is>
       </c>
       <c r="E141" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C11696960</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C12839395</t>
         </is>
       </c>
       <c r="F141" s="2" t="inlineStr">
@@ -6719,7 +6719,7 @@
       </c>
       <c r="H141" s="2" t="inlineStr">
         <is>
-          <t>鞋</t>
+          <t>赠品</t>
         </is>
       </c>
       <c r="I141" s="2" t="inlineStr">
@@ -6741,32 +6741,32 @@
       </c>
       <c r="C142" s="2" t="inlineStr">
         <is>
-          <t>2021W MM</t>
+          <t>2021S MM</t>
         </is>
       </c>
       <c r="D142" s="2" t="inlineStr">
         <is>
-          <t/>
+          <t>配饰-鞋</t>
         </is>
       </c>
       <c r="E142" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C14277809</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C11696960</t>
         </is>
       </c>
       <c r="F142" s="2" t="inlineStr">
         <is>
-          <t>服装</t>
+          <t>配饰</t>
         </is>
       </c>
       <c r="G142" s="2" t="inlineStr">
         <is>
-          <t>下装</t>
+          <t>配饰</t>
         </is>
       </c>
       <c r="H142" s="2" t="inlineStr">
         <is>
-          <t>裙子</t>
+          <t>鞋</t>
         </is>
       </c>
       <c r="I142" s="2" t="inlineStr">
@@ -6793,12 +6793,12 @@
       </c>
       <c r="D143" s="2" t="inlineStr">
         <is>
-          <t>下装-裤子</t>
+          <t>下装-裙子</t>
         </is>
       </c>
       <c r="E143" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C14278353</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C14277809</t>
         </is>
       </c>
       <c r="F143" s="2" t="inlineStr">
@@ -6813,7 +6813,7 @@
       </c>
       <c r="H143" s="2" t="inlineStr">
         <is>
-          <t>裤子</t>
+          <t>裙子</t>
         </is>
       </c>
       <c r="I143" s="2" t="inlineStr">
@@ -6840,12 +6840,12 @@
       </c>
       <c r="D144" s="2" t="inlineStr">
         <is>
-          <t>内搭-单服装</t>
+          <t>下装-裤子</t>
         </is>
       </c>
       <c r="E144" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C14390911</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C14278353</t>
         </is>
       </c>
       <c r="F144" s="2" t="inlineStr">
@@ -6855,12 +6855,12 @@
       </c>
       <c r="G144" s="2" t="inlineStr">
         <is>
-          <t>内搭</t>
+          <t>下装</t>
         </is>
       </c>
       <c r="H144" s="2" t="inlineStr">
         <is>
-          <t>单服装</t>
+          <t>裤子</t>
         </is>
       </c>
       <c r="I144" s="2" t="inlineStr">
@@ -6887,12 +6887,12 @@
       </c>
       <c r="D145" s="2" t="inlineStr">
         <is>
-          <t>内搭-毛衫</t>
+          <t>内搭-单服装</t>
         </is>
       </c>
       <c r="E145" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C13315539</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C14390911</t>
         </is>
       </c>
       <c r="F145" s="2" t="inlineStr">
@@ -6907,7 +6907,7 @@
       </c>
       <c r="H145" s="2" t="inlineStr">
         <is>
-          <t>毛衫</t>
+          <t>单服装</t>
         </is>
       </c>
       <c r="I145" s="2" t="inlineStr">
@@ -6934,12 +6934,12 @@
       </c>
       <c r="D146" s="2" t="inlineStr">
         <is>
-          <t>外套-上衣</t>
+          <t>内搭-毛衫</t>
         </is>
       </c>
       <c r="E146" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C14723210</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C13315539</t>
         </is>
       </c>
       <c r="F146" s="2" t="inlineStr">
@@ -6949,12 +6949,12 @@
       </c>
       <c r="G146" s="2" t="inlineStr">
         <is>
-          <t>外套</t>
+          <t>内搭</t>
         </is>
       </c>
       <c r="H146" s="2" t="inlineStr">
         <is>
-          <t>上衣</t>
+          <t>毛衫</t>
         </is>
       </c>
       <c r="I146" s="2" t="inlineStr">
@@ -6981,12 +6981,12 @@
       </c>
       <c r="D147" s="2" t="inlineStr">
         <is>
-          <t>外套-大衣</t>
+          <t>外套-上衣</t>
         </is>
       </c>
       <c r="E147" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C12614144</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C14723210</t>
         </is>
       </c>
       <c r="F147" s="2" t="inlineStr">
@@ -7001,7 +7001,7 @@
       </c>
       <c r="H147" s="2" t="inlineStr">
         <is>
-          <t>大衣</t>
+          <t>上衣</t>
         </is>
       </c>
       <c r="I147" s="2" t="inlineStr">
@@ -7028,12 +7028,12 @@
       </c>
       <c r="D148" s="2" t="inlineStr">
         <is>
-          <t>外套-棉衣</t>
+          <t>外套-大衣</t>
         </is>
       </c>
       <c r="E148" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C12734507</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C12614144</t>
         </is>
       </c>
       <c r="F148" s="2" t="inlineStr">
@@ -7048,7 +7048,7 @@
       </c>
       <c r="H148" s="2" t="inlineStr">
         <is>
-          <t>棉衣</t>
+          <t>大衣</t>
         </is>
       </c>
       <c r="I148" s="2" t="inlineStr">
@@ -7070,17 +7070,17 @@
       </c>
       <c r="C149" s="2" t="inlineStr">
         <is>
-          <t>2021X MM</t>
+          <t>2021W MM</t>
         </is>
       </c>
       <c r="D149" s="2" t="inlineStr">
         <is>
-          <t/>
+          <t>外套-棉衣</t>
         </is>
       </c>
       <c r="E149" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C11566656</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C12734507</t>
         </is>
       </c>
       <c r="F149" s="2" t="inlineStr">
@@ -7090,12 +7090,12 @@
       </c>
       <c r="G149" s="2" t="inlineStr">
         <is>
-          <t>下装</t>
+          <t>外套</t>
         </is>
       </c>
       <c r="H149" s="2" t="inlineStr">
         <is>
-          <t>裙子</t>
+          <t>棉衣</t>
         </is>
       </c>
       <c r="I149" s="2" t="inlineStr">
@@ -7122,12 +7122,12 @@
       </c>
       <c r="D150" s="2" t="inlineStr">
         <is>
-          <t>下装-裤子</t>
+          <t>下装-裙子</t>
         </is>
       </c>
       <c r="E150" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C11563325</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C11566656</t>
         </is>
       </c>
       <c r="F150" s="2" t="inlineStr">
@@ -7142,7 +7142,7 @@
       </c>
       <c r="H150" s="2" t="inlineStr">
         <is>
-          <t>裤子</t>
+          <t>裙子</t>
         </is>
       </c>
       <c r="I150" s="2" t="inlineStr">
@@ -7169,12 +7169,12 @@
       </c>
       <c r="D151" s="2" t="inlineStr">
         <is>
-          <t>内搭-单服装</t>
+          <t>下装-裤子</t>
         </is>
       </c>
       <c r="E151" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C10806544</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C11563325</t>
         </is>
       </c>
       <c r="F151" s="2" t="inlineStr">
@@ -7184,12 +7184,12 @@
       </c>
       <c r="G151" s="2" t="inlineStr">
         <is>
-          <t>内搭</t>
+          <t>下装</t>
         </is>
       </c>
       <c r="H151" s="2" t="inlineStr">
         <is>
-          <t>单服装</t>
+          <t>裤子</t>
         </is>
       </c>
       <c r="I151" s="2" t="inlineStr">
@@ -7216,12 +7216,12 @@
       </c>
       <c r="D152" s="2" t="inlineStr">
         <is>
-          <t>内搭-毛衫</t>
+          <t>内搭-单服装</t>
         </is>
       </c>
       <c r="E152" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C11652469</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C10806544</t>
         </is>
       </c>
       <c r="F152" s="2" t="inlineStr">
@@ -7236,7 +7236,7 @@
       </c>
       <c r="H152" s="2" t="inlineStr">
         <is>
-          <t>毛衫</t>
+          <t>单服装</t>
         </is>
       </c>
       <c r="I152" s="2" t="inlineStr">
@@ -7263,12 +7263,12 @@
       </c>
       <c r="D153" s="2" t="inlineStr">
         <is>
-          <t>内搭-针织衫</t>
+          <t>内搭-毛衫</t>
         </is>
       </c>
       <c r="E153" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C12012897</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C11652469</t>
         </is>
       </c>
       <c r="F153" s="2" t="inlineStr">
@@ -7283,7 +7283,7 @@
       </c>
       <c r="H153" s="2" t="inlineStr">
         <is>
-          <t>针织衫</t>
+          <t>毛衫</t>
         </is>
       </c>
       <c r="I153" s="2" t="inlineStr">
@@ -7310,12 +7310,12 @@
       </c>
       <c r="D154" s="2" t="inlineStr">
         <is>
-          <t>外套-上衣</t>
+          <t>内搭-针织衫</t>
         </is>
       </c>
       <c r="E154" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C11697280</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C12012897</t>
         </is>
       </c>
       <c r="F154" s="2" t="inlineStr">
@@ -7325,12 +7325,12 @@
       </c>
       <c r="G154" s="2" t="inlineStr">
         <is>
-          <t>外套</t>
+          <t>内搭</t>
         </is>
       </c>
       <c r="H154" s="2" t="inlineStr">
         <is>
-          <t>上衣</t>
+          <t>针织衫</t>
         </is>
       </c>
       <c r="I154" s="2" t="inlineStr">
@@ -7357,12 +7357,12 @@
       </c>
       <c r="D155" s="2" t="inlineStr">
         <is>
-          <t>连身衣-连身衣</t>
+          <t>外套-上衣</t>
         </is>
       </c>
       <c r="E155" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C10164495</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C11697280</t>
         </is>
       </c>
       <c r="F155" s="2" t="inlineStr">
@@ -7372,12 +7372,12 @@
       </c>
       <c r="G155" s="2" t="inlineStr">
         <is>
-          <t>连身衣</t>
+          <t>外套</t>
         </is>
       </c>
       <c r="H155" s="2" t="inlineStr">
         <is>
-          <t>连身衣</t>
+          <t>上衣</t>
         </is>
       </c>
       <c r="I155" s="2" t="inlineStr">
@@ -7404,27 +7404,27 @@
       </c>
       <c r="D156" s="2" t="inlineStr">
         <is>
-          <t>配饰-包</t>
+          <t>连身衣-连身衣</t>
         </is>
       </c>
       <c r="E156" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C12821501</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C10164495</t>
         </is>
       </c>
       <c r="F156" s="2" t="inlineStr">
         <is>
-          <t>配饰</t>
+          <t>服装</t>
         </is>
       </c>
       <c r="G156" s="2" t="inlineStr">
         <is>
-          <t>配饰</t>
+          <t>连身衣</t>
         </is>
       </c>
       <c r="H156" s="2" t="inlineStr">
         <is>
-          <t>包</t>
+          <t>连身衣</t>
         </is>
       </c>
       <c r="I156" s="2" t="inlineStr">
@@ -7451,12 +7451,12 @@
       </c>
       <c r="D157" s="2" t="inlineStr">
         <is>
-          <t>配饰-围巾</t>
+          <t>配饰-包</t>
         </is>
       </c>
       <c r="E157" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C12821881</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C12821501</t>
         </is>
       </c>
       <c r="F157" s="2" t="inlineStr">
@@ -7471,7 +7471,7 @@
       </c>
       <c r="H157" s="2" t="inlineStr">
         <is>
-          <t>围巾</t>
+          <t>包</t>
         </is>
       </c>
       <c r="I157" s="2" t="inlineStr">
@@ -7503,12 +7503,12 @@
       </c>
       <c r="E158" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C13916400</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C12821881</t>
         </is>
       </c>
       <c r="F158" s="2" t="inlineStr">
         <is>
-          <t>服装</t>
+          <t>配饰</t>
         </is>
       </c>
       <c r="G158" s="2" t="inlineStr">
@@ -7545,27 +7545,27 @@
       </c>
       <c r="D159" s="2" t="inlineStr">
         <is>
-          <t>配饰-帽子</t>
+          <t>配饰-围巾</t>
         </is>
       </c>
       <c r="E159" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C12822037</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C13916400</t>
         </is>
       </c>
       <c r="F159" s="2" t="inlineStr">
         <is>
+          <t>服装</t>
+        </is>
+      </c>
+      <c r="G159" s="2" t="inlineStr">
+        <is>
           <t>配饰</t>
         </is>
       </c>
-      <c r="G159" s="2" t="inlineStr">
-        <is>
-          <t>配饰</t>
-        </is>
-      </c>
       <c r="H159" s="2" t="inlineStr">
         <is>
-          <t>帽子</t>
+          <t>围巾</t>
         </is>
       </c>
       <c r="I159" s="2" t="inlineStr">
@@ -7592,12 +7592,12 @@
       </c>
       <c r="D160" s="2" t="inlineStr">
         <is>
-          <t>配饰-眼镜</t>
+          <t>配饰-帽子</t>
         </is>
       </c>
       <c r="E160" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C13791648</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C12822037</t>
         </is>
       </c>
       <c r="F160" s="2" t="inlineStr">
@@ -7612,7 +7612,7 @@
       </c>
       <c r="H160" s="2" t="inlineStr">
         <is>
-          <t>眼镜</t>
+          <t>帽子</t>
         </is>
       </c>
       <c r="I160" s="2" t="inlineStr">
@@ -7639,12 +7639,12 @@
       </c>
       <c r="D161" s="2" t="inlineStr">
         <is>
-          <t>配饰-腰带</t>
+          <t>配饰-眼镜</t>
         </is>
       </c>
       <c r="E161" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C12786095</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C13791648</t>
         </is>
       </c>
       <c r="F161" s="2" t="inlineStr">
@@ -7659,7 +7659,7 @@
       </c>
       <c r="H161" s="2" t="inlineStr">
         <is>
-          <t>腰带</t>
+          <t>眼镜</t>
         </is>
       </c>
       <c r="I161" s="2" t="inlineStr">
@@ -7686,17 +7686,17 @@
       </c>
       <c r="D162" s="2" t="inlineStr">
         <is>
-          <t>配饰-鞋</t>
+          <t>配饰-腰带</t>
         </is>
       </c>
       <c r="E162" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C13792108</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C12786095</t>
         </is>
       </c>
       <c r="F162" s="2" t="inlineStr">
         <is>
-          <t>服装</t>
+          <t>配饰</t>
         </is>
       </c>
       <c r="G162" s="2" t="inlineStr">
@@ -7706,7 +7706,7 @@
       </c>
       <c r="H162" s="2" t="inlineStr">
         <is>
-          <t>鞋</t>
+          <t>腰带</t>
         </is>
       </c>
       <c r="I162" s="2" t="inlineStr">
@@ -7728,17 +7728,17 @@
       </c>
       <c r="C163" s="2" t="inlineStr">
         <is>
-          <t>2021X SM</t>
+          <t>2021X MM</t>
         </is>
       </c>
       <c r="D163" s="2" t="inlineStr">
         <is>
-          <t/>
+          <t>配饰-鞋</t>
         </is>
       </c>
       <c r="E163" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C14196925</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C13792108</t>
         </is>
       </c>
       <c r="F163" s="2" t="inlineStr">
@@ -7748,12 +7748,12 @@
       </c>
       <c r="G163" s="2" t="inlineStr">
         <is>
-          <t>下装</t>
+          <t>配饰</t>
         </is>
       </c>
       <c r="H163" s="2" t="inlineStr">
         <is>
-          <t>裤子</t>
+          <t>鞋</t>
         </is>
       </c>
       <c r="I163" s="2" t="inlineStr">
@@ -7775,17 +7775,17 @@
       </c>
       <c r="C164" s="2" t="inlineStr">
         <is>
-          <t>2022S MM</t>
+          <t>2021X SM</t>
         </is>
       </c>
       <c r="D164" s="2" t="inlineStr">
         <is>
-          <t/>
+          <t>下装-裤子</t>
         </is>
       </c>
       <c r="E164" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C14734357</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C14196925</t>
         </is>
       </c>
       <c r="F164" s="2" t="inlineStr">
@@ -7795,12 +7795,12 @@
       </c>
       <c r="G164" s="2" t="inlineStr">
         <is>
-          <t>内搭</t>
+          <t>下装</t>
         </is>
       </c>
       <c r="H164" s="2" t="inlineStr">
         <is>
-          <t>单服装</t>
+          <t>裤子</t>
         </is>
       </c>
       <c r="I164" s="2" t="inlineStr">
@@ -7822,37 +7822,37 @@
       </c>
       <c r="C165" s="2" t="inlineStr">
         <is>
-          <t>2099A MM</t>
+          <t>2022S MM</t>
         </is>
       </c>
       <c r="D165" s="2" t="inlineStr">
         <is>
-          <t/>
+          <t>内搭-单服装</t>
         </is>
       </c>
       <c r="E165" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C308820</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C14734357</t>
         </is>
       </c>
       <c r="F165" s="2" t="inlineStr">
         <is>
-          <t/>
+          <t>服装</t>
         </is>
       </c>
       <c r="G165" s="2" t="inlineStr">
         <is>
-          <t/>
+          <t>内搭</t>
         </is>
       </c>
       <c r="H165" s="2" t="inlineStr">
         <is>
-          <t/>
+          <t>单服装</t>
         </is>
       </c>
       <c r="I165" s="2" t="inlineStr">
         <is>
-          <t/>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -7874,12 +7874,12 @@
       </c>
       <c r="D166" s="2" t="inlineStr">
         <is>
-          <t/>
+          <t>下装-裙子</t>
         </is>
       </c>
       <c r="E166" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C308823</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C308820</t>
         </is>
       </c>
       <c r="F166" s="2" t="inlineStr">
@@ -7894,7 +7894,7 @@
       </c>
       <c r="H166" s="2" t="inlineStr">
         <is>
-          <t>裤子</t>
+          <t>裙子</t>
         </is>
       </c>
       <c r="I166" s="2" t="inlineStr">
@@ -7921,12 +7921,12 @@
       </c>
       <c r="D167" s="2" t="inlineStr">
         <is>
-          <t>内搭-单服装</t>
+          <t>下装-裤子</t>
         </is>
       </c>
       <c r="E167" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C308827</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C308823</t>
         </is>
       </c>
       <c r="F167" s="2" t="inlineStr">
@@ -7936,12 +7936,12 @@
       </c>
       <c r="G167" s="2" t="inlineStr">
         <is>
-          <t>内搭</t>
+          <t>下装</t>
         </is>
       </c>
       <c r="H167" s="2" t="inlineStr">
         <is>
-          <t>单服装</t>
+          <t>裤子</t>
         </is>
       </c>
       <c r="I167" s="2" t="inlineStr">
@@ -7968,12 +7968,12 @@
       </c>
       <c r="D168" s="2" t="inlineStr">
         <is>
-          <t>内搭-毛衫</t>
+          <t>内搭-单服装</t>
         </is>
       </c>
       <c r="E168" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C308817</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C308827</t>
         </is>
       </c>
       <c r="F168" s="2" t="inlineStr">
@@ -7988,7 +7988,7 @@
       </c>
       <c r="H168" s="2" t="inlineStr">
         <is>
-          <t>毛衫</t>
+          <t>单服装</t>
         </is>
       </c>
       <c r="I168" s="2" t="inlineStr">
@@ -8015,12 +8015,12 @@
       </c>
       <c r="D169" s="2" t="inlineStr">
         <is>
-          <t>内搭-针织衫</t>
+          <t>内搭-毛衫</t>
         </is>
       </c>
       <c r="E169" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C308814</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C308817</t>
         </is>
       </c>
       <c r="F169" s="2" t="inlineStr">
@@ -8035,7 +8035,7 @@
       </c>
       <c r="H169" s="2" t="inlineStr">
         <is>
-          <t>针织衫</t>
+          <t>毛衫</t>
         </is>
       </c>
       <c r="I169" s="2" t="inlineStr">
@@ -8062,12 +8062,12 @@
       </c>
       <c r="D170" s="2" t="inlineStr">
         <is>
-          <t>外套-上衣</t>
+          <t>内搭-针织衫</t>
         </is>
       </c>
       <c r="E170" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C308808</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C308814</t>
         </is>
       </c>
       <c r="F170" s="2" t="inlineStr">
@@ -8077,12 +8077,12 @@
       </c>
       <c r="G170" s="2" t="inlineStr">
         <is>
-          <t>外套</t>
+          <t>内搭</t>
         </is>
       </c>
       <c r="H170" s="2" t="inlineStr">
         <is>
-          <t>上衣</t>
+          <t>针织衫</t>
         </is>
       </c>
       <c r="I170" s="2" t="inlineStr">
@@ -8109,12 +8109,12 @@
       </c>
       <c r="D171" s="2" t="inlineStr">
         <is>
-          <t>外套-大衣</t>
+          <t>外套-上衣</t>
         </is>
       </c>
       <c r="E171" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C308802</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C308808</t>
         </is>
       </c>
       <c r="F171" s="2" t="inlineStr">
@@ -8129,7 +8129,7 @@
       </c>
       <c r="H171" s="2" t="inlineStr">
         <is>
-          <t>大衣</t>
+          <t>上衣</t>
         </is>
       </c>
       <c r="I171" s="2" t="inlineStr">
@@ -8156,12 +8156,12 @@
       </c>
       <c r="D172" s="2" t="inlineStr">
         <is>
-          <t>外套-棉衣</t>
+          <t>外套-大衣</t>
         </is>
       </c>
       <c r="E172" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C308805</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C308802</t>
         </is>
       </c>
       <c r="F172" s="2" t="inlineStr">
@@ -8176,7 +8176,7 @@
       </c>
       <c r="H172" s="2" t="inlineStr">
         <is>
-          <t>棉衣</t>
+          <t>大衣</t>
         </is>
       </c>
       <c r="I172" s="2" t="inlineStr">
@@ -8203,12 +8203,12 @@
       </c>
       <c r="D173" s="2" t="inlineStr">
         <is>
-          <t>外套-风衣</t>
+          <t>外套-棉衣</t>
         </is>
       </c>
       <c r="E173" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C308799</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C308805</t>
         </is>
       </c>
       <c r="F173" s="2" t="inlineStr">
@@ -8223,7 +8223,7 @@
       </c>
       <c r="H173" s="2" t="inlineStr">
         <is>
-          <t>风衣</t>
+          <t>棉衣</t>
         </is>
       </c>
       <c r="I173" s="2" t="inlineStr">
@@ -8250,12 +8250,12 @@
       </c>
       <c r="D174" s="2" t="inlineStr">
         <is>
-          <t>连身衣-连身衣</t>
+          <t>外套-风衣</t>
         </is>
       </c>
       <c r="E174" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C308811</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C308799</t>
         </is>
       </c>
       <c r="F174" s="2" t="inlineStr">
@@ -8265,12 +8265,12 @@
       </c>
       <c r="G174" s="2" t="inlineStr">
         <is>
-          <t>连身衣</t>
+          <t>外套</t>
         </is>
       </c>
       <c r="H174" s="2" t="inlineStr">
         <is>
-          <t>连身衣</t>
+          <t>风衣</t>
         </is>
       </c>
       <c r="I174" s="2" t="inlineStr">
@@ -8292,17 +8292,17 @@
       </c>
       <c r="C175" s="2" t="inlineStr">
         <is>
-          <t>2099S MM</t>
+          <t>2099A MM</t>
         </is>
       </c>
       <c r="D175" s="2" t="inlineStr">
         <is>
-          <t/>
+          <t>连身衣-连身衣</t>
         </is>
       </c>
       <c r="E175" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C1673566</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C308811</t>
         </is>
       </c>
       <c r="F175" s="2" t="inlineStr">
@@ -8312,12 +8312,12 @@
       </c>
       <c r="G175" s="2" t="inlineStr">
         <is>
-          <t>下装</t>
+          <t>连身衣</t>
         </is>
       </c>
       <c r="H175" s="2" t="inlineStr">
         <is>
-          <t>裙子</t>
+          <t>连身衣</t>
         </is>
       </c>
       <c r="I175" s="2" t="inlineStr">
@@ -8344,12 +8344,12 @@
       </c>
       <c r="D176" s="2" t="inlineStr">
         <is>
-          <t>下装-裤子</t>
+          <t>下装-裙子</t>
         </is>
       </c>
       <c r="E176" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C3221031</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C1673566</t>
         </is>
       </c>
       <c r="F176" s="2" t="inlineStr">
@@ -8364,7 +8364,7 @@
       </c>
       <c r="H176" s="2" t="inlineStr">
         <is>
-          <t>裤子</t>
+          <t>裙子</t>
         </is>
       </c>
       <c r="I176" s="2" t="inlineStr">
@@ -8391,12 +8391,12 @@
       </c>
       <c r="D177" s="2" t="inlineStr">
         <is>
-          <t>内搭-单服装</t>
+          <t>下装-裤子</t>
         </is>
       </c>
       <c r="E177" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C11847515</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C3221031</t>
         </is>
       </c>
       <c r="F177" s="2" t="inlineStr">
@@ -8406,12 +8406,12 @@
       </c>
       <c r="G177" s="2" t="inlineStr">
         <is>
-          <t>内搭</t>
+          <t>下装</t>
         </is>
       </c>
       <c r="H177" s="2" t="inlineStr">
         <is>
-          <t>单服装</t>
+          <t>裤子</t>
         </is>
       </c>
       <c r="I177" s="2" t="inlineStr">
@@ -8438,12 +8438,12 @@
       </c>
       <c r="D178" s="2" t="inlineStr">
         <is>
-          <t>内搭-毛衫</t>
+          <t>内搭-单服装</t>
         </is>
       </c>
       <c r="E178" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C12002189</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C11847515</t>
         </is>
       </c>
       <c r="F178" s="2" t="inlineStr">
@@ -8458,7 +8458,7 @@
       </c>
       <c r="H178" s="2" t="inlineStr">
         <is>
-          <t>毛衫</t>
+          <t>单服装</t>
         </is>
       </c>
       <c r="I178" s="2" t="inlineStr">
@@ -8485,12 +8485,12 @@
       </c>
       <c r="D179" s="2" t="inlineStr">
         <is>
-          <t>内搭-针织衫</t>
+          <t>内搭-毛衫</t>
         </is>
       </c>
       <c r="E179" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C1088533</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C12002189</t>
         </is>
       </c>
       <c r="F179" s="2" t="inlineStr">
@@ -8505,7 +8505,7 @@
       </c>
       <c r="H179" s="2" t="inlineStr">
         <is>
-          <t>针织衫</t>
+          <t>毛衫</t>
         </is>
       </c>
       <c r="I179" s="2" t="inlineStr">
@@ -8532,12 +8532,12 @@
       </c>
       <c r="D180" s="2" t="inlineStr">
         <is>
-          <t>外套-上衣</t>
+          <t>内搭-针织衫</t>
         </is>
       </c>
       <c r="E180" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C13057529</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C1088533</t>
         </is>
       </c>
       <c r="F180" s="2" t="inlineStr">
@@ -8547,12 +8547,12 @@
       </c>
       <c r="G180" s="2" t="inlineStr">
         <is>
-          <t>外套</t>
+          <t>内搭</t>
         </is>
       </c>
       <c r="H180" s="2" t="inlineStr">
         <is>
-          <t>上衣</t>
+          <t>针织衫</t>
         </is>
       </c>
       <c r="I180" s="2" t="inlineStr">
@@ -8574,17 +8574,17 @@
       </c>
       <c r="C181" s="2" t="inlineStr">
         <is>
-          <t>2099W MM</t>
+          <t>2099S MM</t>
         </is>
       </c>
       <c r="D181" s="2" t="inlineStr">
         <is>
-          <t/>
+          <t>外套-上衣</t>
         </is>
       </c>
       <c r="E181" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C1565267</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C13057529</t>
         </is>
       </c>
       <c r="F181" s="2" t="inlineStr">
@@ -8594,17 +8594,17 @@
       </c>
       <c r="G181" s="2" t="inlineStr">
         <is>
-          <t>下装</t>
+          <t>外套</t>
         </is>
       </c>
       <c r="H181" s="2" t="inlineStr">
         <is>
-          <t>裙子</t>
+          <t>上衣</t>
         </is>
       </c>
       <c r="I181" s="2" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -8626,12 +8626,12 @@
       </c>
       <c r="D182" s="2" t="inlineStr">
         <is>
-          <t>下装-裤子</t>
+          <t>下装-裙子</t>
         </is>
       </c>
       <c r="E182" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C1088274</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C1565267</t>
         </is>
       </c>
       <c r="F182" s="2" t="inlineStr">
@@ -8646,7 +8646,7 @@
       </c>
       <c r="H182" s="2" t="inlineStr">
         <is>
-          <t>裤子</t>
+          <t>裙子</t>
         </is>
       </c>
       <c r="I182" s="2" t="inlineStr">
@@ -8673,12 +8673,12 @@
       </c>
       <c r="D183" s="2" t="inlineStr">
         <is>
-          <t>内搭-毛衫</t>
+          <t>下装-裤子</t>
         </is>
       </c>
       <c r="E183" s="2" t="inlineStr">
         <is>
-          <t>http://10.8.240.175/WebAccess/home.html#URL=C11980463</t>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C1088274</t>
         </is>
       </c>
       <c r="F183" s="2" t="inlineStr">
@@ -8688,12 +8688,12 @@
       </c>
       <c r="G183" s="2" t="inlineStr">
         <is>
-          <t>内搭</t>
+          <t>下装</t>
         </is>
       </c>
       <c r="H183" s="2" t="inlineStr">
         <is>
-          <t>毛衫</t>
+          <t>裤子</t>
         </is>
       </c>
       <c r="I183" s="2" t="inlineStr">
@@ -8720,30 +8720,77 @@
       </c>
       <c r="D184" s="2" t="inlineStr">
         <is>
+          <t>内搭-毛衫</t>
+        </is>
+      </c>
+      <c r="E184" s="2" t="inlineStr">
+        <is>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C11980463</t>
+        </is>
+      </c>
+      <c r="F184" s="2" t="inlineStr">
+        <is>
+          <t>服装</t>
+        </is>
+      </c>
+      <c r="G184" s="2" t="inlineStr">
+        <is>
+          <t>内搭</t>
+        </is>
+      </c>
+      <c r="H184" s="2" t="inlineStr">
+        <is>
+          <t>毛衫</t>
+        </is>
+      </c>
+      <c r="I184" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="inlineStr">
+        <is>
+          <t>http://10.8.240.175/WebAccess/home.html#URL=C308755</t>
+        </is>
+      </c>
+      <c r="B185" s="2" t="inlineStr">
+        <is>
+          <t>MM商品企划</t>
+        </is>
+      </c>
+      <c r="C185" s="2" t="inlineStr">
+        <is>
+          <t>2099W MM</t>
+        </is>
+      </c>
+      <c r="D185" s="2" t="inlineStr">
+        <is>
           <t>内搭-针织衫</t>
         </is>
       </c>
-      <c r="E184" s="2" t="inlineStr">
+      <c r="E185" s="2" t="inlineStr">
         <is>
           <t>http://10.8.240.175/WebAccess/home.html#URL=C1053636</t>
         </is>
       </c>
-      <c r="F184" s="2" t="inlineStr">
-        <is>
-          <t>服装</t>
-        </is>
-      </c>
-      <c r="G184" s="2" t="inlineStr">
+      <c r="F185" s="2" t="inlineStr">
+        <is>
+          <t>服装</t>
+        </is>
+      </c>
+      <c r="G185" s="2" t="inlineStr">
         <is>
           <t>内搭</t>
         </is>
       </c>
-      <c r="H184" s="2" t="inlineStr">
+      <c r="H185" s="2" t="inlineStr">
         <is>
           <t>针织衫</t>
         </is>
       </c>
-      <c r="I184" s="2" t="inlineStr">
+      <c r="I185" s="2" t="inlineStr">
         <is>
           <t>2</t>
         </is>
